--- a/output/ratios/Summary_ratios_stats.xlsx
+++ b/output/ratios/Summary_ratios_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTD\OneDrive - HEC Montréal\esg\output\ratios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1AEF3-E09A-4FBC-94A4-571E4366B812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFA3C1-3086-4F33-B747-1B0D8D2A2FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,6 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,7 +2192,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="daily_6f_ghg_ratios_stats"/>
+      <sheetName val="monthly_3f_env_ratios_stats"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2201,40 +2201,40 @@
             <v>Mean</v>
           </cell>
           <cell r="B2">
-            <v>0.111990743554658</v>
+            <v>0.112517720602722</v>
           </cell>
           <cell r="C2">
-            <v>8.1573566686531401E-2</v>
+            <v>9.0889514148420503E-2</v>
           </cell>
           <cell r="D2">
-            <v>0.118744492580641</v>
+            <v>0.105176011332586</v>
           </cell>
           <cell r="E2">
-            <v>8.5725276344395501E-2</v>
+            <v>8.8788705638353199E-2</v>
           </cell>
           <cell r="F2">
-            <v>0.10709494229666799</v>
+            <v>0.104122354057834</v>
           </cell>
           <cell r="G2">
-            <v>8.6024049528840602E-2</v>
+            <v>9.8289053022526496E-2</v>
           </cell>
           <cell r="H2">
-            <v>0.10008413880505899</v>
+            <v>0.12436160776369901</v>
           </cell>
           <cell r="I2">
-            <v>7.9378149617804497E-2</v>
+            <v>9.8371448159203595E-2</v>
           </cell>
           <cell r="J2">
-            <v>7.6183457718643599E-2</v>
+            <v>0.11218825642611201</v>
           </cell>
           <cell r="K2">
-            <v>7.8892168357348302E-2</v>
+            <v>8.6516386004238499E-2</v>
           </cell>
           <cell r="L2">
-            <v>7.8651066310075193E-2</v>
+            <v>0.11573247450518399</v>
           </cell>
           <cell r="M2">
-            <v>8.1406234768099994E-2</v>
+            <v>8.5902156619235198E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -2242,40 +2242,40 @@
             <v>Std.Dev</v>
           </cell>
           <cell r="B3">
-            <v>3.1964476572623801E-2</v>
+            <v>2.0537995182537998E-2</v>
           </cell>
           <cell r="C3">
-            <v>1.9182099778362601E-2</v>
+            <v>1.40055885971775E-2</v>
           </cell>
           <cell r="D3">
-            <v>3.6912086943246498E-2</v>
+            <v>2.0701299026403799E-2</v>
           </cell>
           <cell r="E3">
-            <v>2.9055668093139201E-2</v>
+            <v>1.4119181188839701E-2</v>
           </cell>
           <cell r="F3">
-            <v>2.29514481440844E-2</v>
+            <v>1.8693611094304001E-2</v>
           </cell>
           <cell r="G3">
-            <v>1.8062783244391398E-2</v>
+            <v>1.93180682979519E-2</v>
           </cell>
           <cell r="H3">
-            <v>2.2292301208599902E-2</v>
+            <v>1.5903988337371899E-2</v>
           </cell>
           <cell r="I3">
-            <v>1.6676582298545E-2</v>
+            <v>2.1577327510648801E-2</v>
           </cell>
           <cell r="J3">
-            <v>1.8400691057877901E-2</v>
+            <v>1.90526835608971E-2</v>
           </cell>
           <cell r="K3">
-            <v>1.4241648394487501E-2</v>
+            <v>1.3051700336071601E-2</v>
           </cell>
           <cell r="L3">
-            <v>1.7314655971917201E-2</v>
+            <v>1.9586231384974999E-2</v>
           </cell>
           <cell r="M3">
-            <v>2.49841977407185E-2</v>
+            <v>1.2534266616375999E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -2283,40 +2283,40 @@
             <v>Min</v>
           </cell>
           <cell r="B4">
-            <v>5.2550869528202801E-2</v>
+            <v>8.4760337062098207E-2</v>
           </cell>
           <cell r="C4">
-            <v>3.0260428517019902E-2</v>
+            <v>6.5624144564742401E-2</v>
           </cell>
           <cell r="D4">
-            <v>5.49858337587701E-2</v>
+            <v>7.7881316010946194E-2</v>
           </cell>
           <cell r="E4">
-            <v>3.4860350152696999E-2</v>
+            <v>5.8014391332389802E-2</v>
           </cell>
           <cell r="F4">
-            <v>5.5634187919242802E-2</v>
+            <v>6.3244635674810298E-2</v>
           </cell>
           <cell r="G4">
-            <v>3.8474379393633899E-2</v>
+            <v>7.32832880653288E-2</v>
           </cell>
           <cell r="H4">
-            <v>5.8180982861259903E-2</v>
+            <v>0.101551805388599</v>
           </cell>
           <cell r="I4">
-            <v>3.7483440181491398E-2</v>
+            <v>6.7629424971617197E-2</v>
           </cell>
           <cell r="J4">
-            <v>4.3532585873153201E-2</v>
+            <v>7.7076095705164799E-2</v>
           </cell>
           <cell r="K4">
-            <v>4.7462118811732699E-2</v>
+            <v>6.4833234685891E-2</v>
           </cell>
           <cell r="L4">
-            <v>4.6080922412435797E-2</v>
+            <v>8.2274772421349202E-2</v>
           </cell>
           <cell r="M4">
-            <v>3.9739143165336298E-2</v>
+            <v>6.5751576597608705E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -2324,40 +2324,40 @@
             <v>Q1</v>
           </cell>
           <cell r="B5">
-            <v>9.0987705409309602E-2</v>
+            <v>9.4655455498948604E-2</v>
           </cell>
           <cell r="C5">
-            <v>6.6877632535464804E-2</v>
+            <v>8.2852693048160994E-2</v>
           </cell>
           <cell r="D5">
-            <v>9.0975591638039199E-2</v>
+            <v>8.9115920410534802E-2</v>
           </cell>
           <cell r="E5">
-            <v>5.6747842806805698E-2</v>
+            <v>7.4708385917211503E-2</v>
           </cell>
           <cell r="F5">
-            <v>9.1751141618084106E-2</v>
+            <v>9.0562576929793498E-2</v>
           </cell>
           <cell r="G5">
-            <v>7.4045552109663307E-2</v>
+            <v>8.26160395487886E-2</v>
           </cell>
           <cell r="H5">
-            <v>8.3321853784996694E-2</v>
+            <v>0.11074287631661101</v>
           </cell>
           <cell r="I5">
-            <v>6.7627917313514502E-2</v>
+            <v>7.6923632278848603E-2</v>
           </cell>
           <cell r="J5">
-            <v>5.9375604507551E-2</v>
+            <v>9.9067036657393498E-2</v>
           </cell>
           <cell r="K5">
-            <v>6.8943217040645002E-2</v>
+            <v>7.6477066349775094E-2</v>
           </cell>
           <cell r="L5">
-            <v>6.2857709727738603E-2</v>
+            <v>0.10166193521526801</v>
           </cell>
           <cell r="M5">
-            <v>5.3970377107807797E-2</v>
+            <v>7.5958728775226095E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -2365,40 +2365,40 @@
             <v>Median</v>
           </cell>
           <cell r="B6">
-            <v>0.11349441463690001</v>
+            <v>0.106879338848756</v>
           </cell>
           <cell r="C6">
-            <v>7.9227783861447895E-2</v>
+            <v>9.2218452095175901E-2</v>
           </cell>
           <cell r="D6">
-            <v>0.11767755921550301</v>
+            <v>9.8193711346983001E-2</v>
           </cell>
           <cell r="E6">
-            <v>8.2437478687370697E-2</v>
+            <v>9.0934663680811503E-2</v>
           </cell>
           <cell r="F6">
-            <v>0.11181266334732</v>
+            <v>0.104820561635698</v>
           </cell>
           <cell r="G6">
-            <v>8.8548155614997903E-2</v>
+            <v>9.82608356067564E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.10221666101586099</v>
+            <v>0.12272523064778</v>
           </cell>
           <cell r="I6">
-            <v>8.2083168461088998E-2</v>
+            <v>9.4198899775154901E-2</v>
           </cell>
           <cell r="J6">
-            <v>7.8313632837254704E-2</v>
+            <v>0.111244403882367</v>
           </cell>
           <cell r="K6">
-            <v>7.9434354339565305E-2</v>
+            <v>8.2534202700830797E-2</v>
           </cell>
           <cell r="L6">
-            <v>7.7443441153153506E-2</v>
+            <v>0.11852537658003</v>
           </cell>
           <cell r="M6">
-            <v>8.8131239925999902E-2</v>
+            <v>8.2698213464722795E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -2406,40 +2406,40 @@
             <v>Q3</v>
           </cell>
           <cell r="B7">
-            <v>0.13337755809947099</v>
+            <v>0.126108219360588</v>
           </cell>
           <cell r="C7">
-            <v>9.7442900065419294E-2</v>
+            <v>9.7177549954365394E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.140683149338764</v>
+            <v>0.12509596834869099</v>
           </cell>
           <cell r="E7">
-            <v>0.10548854047812201</v>
+            <v>0.100793035290208</v>
           </cell>
           <cell r="F7">
-            <v>0.121173638645331</v>
+            <v>0.123184179587704</v>
           </cell>
           <cell r="G7">
-            <v>9.90410424651781E-2</v>
+            <v>0.10713924053804801</v>
           </cell>
           <cell r="H7">
-            <v>0.113239098694562</v>
+            <v>0.134906188184444</v>
           </cell>
           <cell r="I7">
-            <v>9.1583500950753099E-2</v>
+            <v>0.115772070269965</v>
           </cell>
           <cell r="J7">
-            <v>8.9453449373618099E-2</v>
+            <v>0.12534634606564601</v>
           </cell>
           <cell r="K7">
-            <v>8.7312168212882693E-2</v>
+            <v>9.3573726206569494E-2</v>
           </cell>
           <cell r="L7">
-            <v>9.4454203028153799E-2</v>
+            <v>0.124800832880575</v>
           </cell>
           <cell r="M7">
-            <v>0.101823798747209</v>
+            <v>9.6926134557259E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -2447,40 +2447,40 @@
             <v>Max</v>
           </cell>
           <cell r="B8">
-            <v>0.17313935009082401</v>
+            <v>0.15121372001879599</v>
           </cell>
           <cell r="C8">
-            <v>0.122533181558713</v>
+            <v>0.129935428640404</v>
           </cell>
           <cell r="D8">
-            <v>0.20273228143849301</v>
+            <v>0.15861791815492801</v>
           </cell>
           <cell r="E8">
-            <v>0.148146013377674</v>
+            <v>0.110090405126121</v>
           </cell>
           <cell r="F8">
-            <v>0.155185358711665</v>
+            <v>0.13331174112726801</v>
           </cell>
           <cell r="G8">
-            <v>0.117311915814917</v>
+            <v>0.144554186048517</v>
           </cell>
           <cell r="H8">
-            <v>0.148205663747767</v>
+            <v>0.15970973511342501</v>
           </cell>
           <cell r="I8">
-            <v>0.11116659503262399</v>
+            <v>0.13598913680104199</v>
           </cell>
           <cell r="J8">
-            <v>0.121590153106499</v>
+            <v>0.15389232796812299</v>
           </cell>
           <cell r="K8">
-            <v>0.110839862779646</v>
+            <v>0.11997297995855701</v>
           </cell>
           <cell r="L8">
-            <v>0.113916569200288</v>
+            <v>0.153104608727789</v>
           </cell>
           <cell r="M8">
-            <v>0.122188567423882</v>
+            <v>0.11490750065793</v>
           </cell>
         </row>
         <row r="9">
@@ -2488,40 +2488,40 @@
             <v>MAD</v>
           </cell>
           <cell r="B9">
-            <v>3.1011619518947701E-2</v>
+            <v>1.9789895047831199E-2</v>
           </cell>
           <cell r="C9">
-            <v>2.0818676472495402E-2</v>
+            <v>1.27437104966434E-2</v>
           </cell>
           <cell r="D9">
-            <v>3.7550644487995298E-2</v>
+            <v>1.5202615416748401E-2</v>
           </cell>
           <cell r="E9">
-            <v>3.4175504210968002E-2</v>
+            <v>1.60552832848215E-2</v>
           </cell>
           <cell r="F9">
-            <v>2.0263532890124499E-2</v>
+            <v>2.1138888124974001E-2</v>
           </cell>
           <cell r="G9">
-            <v>1.6864882022195899E-2</v>
+            <v>1.74302872460145E-2</v>
           </cell>
           <cell r="H9">
-            <v>2.39943166574802E-2</v>
+            <v>1.7935903751371201E-2</v>
           </cell>
           <cell r="I9">
-            <v>1.5698895108715201E-2</v>
+            <v>2.5612311590023799E-2</v>
           </cell>
           <cell r="J9">
-            <v>2.1649175416720699E-2</v>
+            <v>1.8054164647745501E-2</v>
           </cell>
           <cell r="K9">
-            <v>1.3989279625497E-2</v>
+            <v>9.1029762273888305E-3</v>
           </cell>
           <cell r="L9">
-            <v>2.3296352747876399E-2</v>
+            <v>2.0407479533445901E-2</v>
           </cell>
           <cell r="M9">
-            <v>3.0214934319676898E-2</v>
+            <v>1.38450005961931E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -2529,40 +2529,40 @@
             <v>IQR</v>
           </cell>
           <cell r="B10">
-            <v>4.0651707612885599E-2</v>
+            <v>2.9271954626105399E-2</v>
           </cell>
           <cell r="C10">
-            <v>2.9826955348955801E-2</v>
+            <v>1.40867784322156E-2</v>
           </cell>
           <cell r="D10">
-            <v>4.89868340912262E-2</v>
+            <v>2.6213507442374301E-2</v>
           </cell>
           <cell r="E10">
-            <v>4.5881552409790603E-2</v>
+            <v>2.30123765362872E-2</v>
           </cell>
           <cell r="F10">
-            <v>2.8539938180305199E-2</v>
+            <v>2.9399359454417202E-2</v>
           </cell>
           <cell r="G10">
-            <v>2.4201807260720101E-2</v>
+            <v>2.2775786486314401E-2</v>
           </cell>
           <cell r="H10">
-            <v>2.9592131058942699E-2</v>
+            <v>2.37323104901382E-2</v>
           </cell>
           <cell r="I10">
-            <v>2.35809688841544E-2</v>
+            <v>3.3945593069627397E-2</v>
           </cell>
           <cell r="J10">
-            <v>2.9640811571215699E-2</v>
+            <v>2.3180130798994999E-2</v>
           </cell>
           <cell r="K10">
-            <v>1.80089422988099E-2</v>
+            <v>1.5405605440574999E-2</v>
           </cell>
           <cell r="L10">
-            <v>3.0706130378166E-2</v>
+            <v>2.0322319415518299E-2</v>
           </cell>
           <cell r="M10">
-            <v>4.5755441605659898E-2</v>
+            <v>1.9478440326438799E-2</v>
           </cell>
         </row>
         <row r="11">
@@ -2570,40 +2570,40 @@
             <v>CV</v>
           </cell>
           <cell r="B11">
-            <v>0.28542070137272901</v>
+            <v>0.182531205507208</v>
           </cell>
           <cell r="C11">
-            <v>0.23515092642785801</v>
+            <v>0.15409465798559199</v>
           </cell>
           <cell r="D11">
-            <v>0.31085304371635702</v>
+            <v>0.19682529090157599</v>
           </cell>
           <cell r="E11">
-            <v>0.33893933425667899</v>
+            <v>0.15902001372053701</v>
           </cell>
           <cell r="F11">
-            <v>0.21430935627665501</v>
+            <v>0.17953504089929501</v>
           </cell>
           <cell r="G11">
-            <v>0.20997364508323499</v>
+            <v>0.19654343697384499</v>
           </cell>
           <cell r="H11">
-            <v>0.22273560500950301</v>
+            <v>0.127885033197635</v>
           </cell>
           <cell r="I11">
-            <v>0.210090338195594</v>
+            <v>0.21934542913029201</v>
           </cell>
           <cell r="J11">
-            <v>0.241531319382145</v>
+            <v>0.16982778918081601</v>
           </cell>
           <cell r="K11">
-            <v>0.180520433029282</v>
+            <v>0.15085813149236499</v>
           </cell>
           <cell r="L11">
-            <v>0.22014521587864599</v>
+            <v>0.16923712612830799</v>
           </cell>
           <cell r="M11">
-            <v>0.30690766882770598</v>
+            <v>0.14591329379464399</v>
           </cell>
         </row>
         <row r="12">
@@ -2611,40 +2611,40 @@
             <v>Skewness</v>
           </cell>
           <cell r="B12">
-            <v>-6.3112666575605603E-2</v>
+            <v>0.52659754935525804</v>
           </cell>
           <cell r="C12">
-            <v>-1.8973559544133298E-2</v>
+            <v>0.64829231395299103</v>
           </cell>
           <cell r="D12">
-            <v>0.33165125157495801</v>
+            <v>0.89921600415061398</v>
           </cell>
           <cell r="E12">
-            <v>0.26953596584113898</v>
+            <v>-0.28938623288903598</v>
           </cell>
           <cell r="F12">
-            <v>-0.49240921314503899</v>
+            <v>-0.19948969369629899</v>
           </cell>
           <cell r="G12">
-            <v>-0.600626770937848</v>
+            <v>0.66459811483869502</v>
           </cell>
           <cell r="H12">
-            <v>0.116004587578748</v>
+            <v>0.30426207835975799</v>
           </cell>
           <cell r="I12">
-            <v>-0.41184128275821802</v>
+            <v>0.31751005159726697</v>
           </cell>
           <cell r="J12">
-            <v>0.26867010970539401</v>
+            <v>0.15444522577031899</v>
           </cell>
           <cell r="K12">
-            <v>4.6188722258234102E-2</v>
+            <v>0.85794577235994995</v>
           </cell>
           <cell r="L12">
-            <v>-1.37176896110691E-2</v>
+            <v>9.6309053870288402E-2</v>
           </cell>
           <cell r="M12">
-            <v>-0.19400109665909299</v>
+            <v>0.43821488903060202</v>
           </cell>
         </row>
         <row r="13">
@@ -2652,40 +2652,40 @@
             <v>SE.Skewness</v>
           </cell>
           <cell r="B13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="C13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="D13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
           <cell r="E13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
           <cell r="F13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="G13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="H13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
           <cell r="I13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
           <cell r="J13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="K13">
-            <v>0.27054479931869102</v>
+            <v>0.44785201637530703</v>
           </cell>
           <cell r="L13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
           <cell r="M13">
-            <v>0.29283625195482998</v>
+            <v>0.48133666148027998</v>
           </cell>
         </row>
         <row r="14">
@@ -2693,40 +2693,40 @@
             <v>Kurtosis</v>
           </cell>
           <cell r="B14">
-            <v>-0.80352218803665199</v>
+            <v>-0.87420115561351597</v>
           </cell>
           <cell r="C14">
-            <v>-0.63701195472633398</v>
+            <v>0.79197728904682296</v>
           </cell>
           <cell r="D14">
-            <v>-0.60440985996519603</v>
+            <v>-0.15280039174919099</v>
           </cell>
           <cell r="E14">
-            <v>-0.91699231507274603</v>
+            <v>-0.95046257189817096</v>
           </cell>
           <cell r="F14">
-            <v>-0.49176907770992401</v>
+            <v>-0.88324267827793201</v>
           </cell>
           <cell r="G14">
-            <v>-0.26040607612413402</v>
+            <v>-0.27444717204144498</v>
           </cell>
           <cell r="H14">
-            <v>-0.61258981080719499</v>
+            <v>-0.93895922095536699</v>
           </cell>
           <cell r="I14">
-            <v>-0.22870162473469899</v>
+            <v>-1.32677975504614</v>
           </cell>
           <cell r="J14">
-            <v>-0.62831596977246196</v>
+            <v>-0.70452895318182296</v>
           </cell>
           <cell r="K14">
-            <v>-0.61575760179222705</v>
+            <v>-9.4312578903051697E-2</v>
           </cell>
           <cell r="L14">
-            <v>-1.2248719538509101</v>
+            <v>-0.85934371596204095</v>
           </cell>
           <cell r="M14">
-            <v>-1.39834675763853</v>
+            <v>-0.77939215508436099</v>
           </cell>
         </row>
         <row r="15">
@@ -2734,40 +2734,40 @@
             <v>N.Valid</v>
           </cell>
           <cell r="B15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="C15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="D15">
-            <v>67</v>
+            <v>23</v>
           </cell>
           <cell r="E15">
-            <v>67</v>
+            <v>23</v>
           </cell>
           <cell r="F15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="G15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="H15">
-            <v>67</v>
+            <v>23</v>
           </cell>
           <cell r="I15">
-            <v>67</v>
+            <v>23</v>
           </cell>
           <cell r="J15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="K15">
-            <v>79</v>
+            <v>27</v>
           </cell>
           <cell r="L15">
-            <v>67</v>
+            <v>23</v>
           </cell>
           <cell r="M15">
-            <v>67</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="16">
@@ -2821,7 +2821,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="daily_6f_env_ratios_stats"/>
+      <sheetName val="daily_6f_ghg_ratios_stats"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2830,40 +2830,40 @@
             <v>Mean</v>
           </cell>
           <cell r="B2">
-            <v>8.68567741266838E-2</v>
+            <v>0.111990743554658</v>
           </cell>
           <cell r="C2">
-            <v>7.0435855056790495E-2</v>
+            <v>8.1573566686531401E-2</v>
           </cell>
           <cell r="D2">
-            <v>8.3550498267471698E-2</v>
+            <v>0.118744492580641</v>
           </cell>
           <cell r="E2">
-            <v>8.01983634969268E-2</v>
+            <v>8.5725276344395501E-2</v>
           </cell>
           <cell r="F2">
-            <v>7.74609406152372E-2</v>
+            <v>0.10709494229666799</v>
           </cell>
           <cell r="G2">
-            <v>8.0586960959817905E-2</v>
+            <v>8.6024049528840602E-2</v>
           </cell>
           <cell r="H2">
-            <v>9.8299395834364797E-2</v>
+            <v>0.10008413880505899</v>
           </cell>
           <cell r="I2">
-            <v>8.9970542026014594E-2</v>
+            <v>7.9378149617804497E-2</v>
           </cell>
           <cell r="J2">
-            <v>8.2528623475740304E-2</v>
+            <v>7.6183457718643599E-2</v>
           </cell>
           <cell r="K2">
-            <v>7.6142355425238201E-2</v>
+            <v>7.8892168357348302E-2</v>
           </cell>
           <cell r="L2">
-            <v>8.8854751143623401E-2</v>
+            <v>7.8651066310075193E-2</v>
           </cell>
           <cell r="M2">
-            <v>7.1890526423175505E-2</v>
+            <v>8.1406234768099994E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -2871,40 +2871,40 @@
             <v>Std.Dev</v>
           </cell>
           <cell r="B3">
-            <v>1.47609901701963E-2</v>
+            <v>3.1964476572623801E-2</v>
           </cell>
           <cell r="C3">
-            <v>9.8725208090142298E-3</v>
+            <v>1.9182099778362601E-2</v>
           </cell>
           <cell r="D3">
-            <v>1.81423842408781E-2</v>
+            <v>3.6912086943246498E-2</v>
           </cell>
           <cell r="E3">
-            <v>1.40513338853238E-2</v>
+            <v>2.9055668093139201E-2</v>
           </cell>
           <cell r="F3">
-            <v>1.02260036387477E-2</v>
+            <v>2.29514481440844E-2</v>
           </cell>
           <cell r="G3">
-            <v>1.35862909618173E-2</v>
+            <v>1.8062783244391398E-2</v>
           </cell>
           <cell r="H3">
-            <v>1.9985245398797501E-2</v>
+            <v>2.2292301208599902E-2</v>
           </cell>
           <cell r="I3">
-            <v>1.4462693548673199E-2</v>
+            <v>1.6676582298545E-2</v>
           </cell>
           <cell r="J3">
-            <v>1.41698339015992E-2</v>
+            <v>1.8400691057877901E-2</v>
           </cell>
           <cell r="K3">
-            <v>1.33953167893862E-2</v>
+            <v>1.4241648394487501E-2</v>
           </cell>
           <cell r="L3">
-            <v>1.60812804692998E-2</v>
+            <v>1.7314655971917201E-2</v>
           </cell>
           <cell r="M3">
-            <v>1.2435118195819999E-2</v>
+            <v>2.49841977407185E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -2912,40 +2912,40 @@
             <v>Min</v>
           </cell>
           <cell r="B4">
-            <v>6.4132985118942998E-2</v>
+            <v>5.2550869528202801E-2</v>
           </cell>
           <cell r="C4">
-            <v>4.4265011537557498E-2</v>
+            <v>3.0260428517019902E-2</v>
           </cell>
           <cell r="D4">
-            <v>5.53428950781635E-2</v>
+            <v>5.49858337587701E-2</v>
           </cell>
           <cell r="E4">
-            <v>4.7938705732983401E-2</v>
+            <v>3.4860350152696999E-2</v>
           </cell>
           <cell r="F4">
-            <v>5.7005801494430602E-2</v>
+            <v>5.5634187919242802E-2</v>
           </cell>
           <cell r="G4">
-            <v>4.8566265999887198E-2</v>
+            <v>3.8474379393633899E-2</v>
           </cell>
           <cell r="H4">
-            <v>6.3911589416079204E-2</v>
+            <v>5.8180982861259903E-2</v>
           </cell>
           <cell r="I4">
-            <v>6.1944745434824297E-2</v>
+            <v>3.7483440181491398E-2</v>
           </cell>
           <cell r="J4">
-            <v>5.35161786900889E-2</v>
+            <v>4.3532585873153201E-2</v>
           </cell>
           <cell r="K4">
-            <v>5.3234145564586201E-2</v>
+            <v>4.7462118811732699E-2</v>
           </cell>
           <cell r="L4">
-            <v>5.5830037191812197E-2</v>
+            <v>4.6080922412435797E-2</v>
           </cell>
           <cell r="M4">
-            <v>4.4917820511692401E-2</v>
+            <v>3.9739143165336298E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -2953,40 +2953,40 @@
             <v>Q1</v>
           </cell>
           <cell r="B5">
-            <v>7.4178878614598404E-2</v>
+            <v>9.0987705409309602E-2</v>
           </cell>
           <cell r="C5">
-            <v>6.4267170347588207E-2</v>
+            <v>6.6877632535464804E-2</v>
           </cell>
           <cell r="D5">
-            <v>7.1166124985010196E-2</v>
+            <v>9.0975591638039199E-2</v>
           </cell>
           <cell r="E5">
-            <v>6.8421671372624004E-2</v>
+            <v>5.6747842806805698E-2</v>
           </cell>
           <cell r="F5">
-            <v>6.8587527602738604E-2</v>
+            <v>9.1751141618084106E-2</v>
           </cell>
           <cell r="G5">
-            <v>7.11624665258829E-2</v>
+            <v>7.4045552109663307E-2</v>
           </cell>
           <cell r="H5">
-            <v>7.8249058000624802E-2</v>
+            <v>8.3321853784996694E-2</v>
           </cell>
           <cell r="I5">
-            <v>7.98445260929566E-2</v>
+            <v>6.7627917313514502E-2</v>
           </cell>
           <cell r="J5">
-            <v>7.2048989835612504E-2</v>
+            <v>5.9375604507551E-2</v>
           </cell>
           <cell r="K5">
-            <v>6.4619384646746006E-2</v>
+            <v>6.8943217040645002E-2</v>
           </cell>
           <cell r="L5">
-            <v>7.5291667905133003E-2</v>
+            <v>6.2857709727738603E-2</v>
           </cell>
           <cell r="M5">
-            <v>6.20959549669894E-2</v>
+            <v>5.3970377107807797E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -2994,40 +2994,40 @@
             <v>Median</v>
           </cell>
           <cell r="B6">
-            <v>8.5614372612199396E-2</v>
+            <v>0.11349441463690001</v>
           </cell>
           <cell r="C6">
-            <v>6.9876006976892099E-2</v>
+            <v>7.9227783861447895E-2</v>
           </cell>
           <cell r="D6">
-            <v>7.8351127556125194E-2</v>
+            <v>0.11767755921550301</v>
           </cell>
           <cell r="E6">
-            <v>8.2185569863925501E-2</v>
+            <v>8.2437478687370697E-2</v>
           </cell>
           <cell r="F6">
-            <v>7.7747169192943694E-2</v>
+            <v>0.11181266334732</v>
           </cell>
           <cell r="G6">
-            <v>7.9787349157748197E-2</v>
+            <v>8.8548155614997903E-2</v>
           </cell>
           <cell r="H6">
-            <v>9.7900720452914994E-2</v>
+            <v>0.10221666101586099</v>
           </cell>
           <cell r="I6">
-            <v>8.9943345392432802E-2</v>
+            <v>8.2083168461088998E-2</v>
           </cell>
           <cell r="J6">
-            <v>8.1605274910361403E-2</v>
+            <v>7.8313632837254704E-2</v>
           </cell>
           <cell r="K6">
-            <v>7.5325045853452705E-2</v>
+            <v>7.9434354339565305E-2</v>
           </cell>
           <cell r="L6">
-            <v>8.6680250416273003E-2</v>
+            <v>7.7443441153153506E-2</v>
           </cell>
           <cell r="M6">
-            <v>7.1081645976350694E-2</v>
+            <v>8.8131239925999902E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -3035,40 +3035,40 @@
             <v>Q3</v>
           </cell>
           <cell r="B7">
-            <v>9.9427566796513003E-2</v>
+            <v>0.13337755809947099</v>
           </cell>
           <cell r="C7">
-            <v>7.7179286877347E-2</v>
+            <v>9.7442900065419294E-2</v>
           </cell>
           <cell r="D7">
-            <v>9.2624128091403093E-2</v>
+            <v>0.140683149338764</v>
           </cell>
           <cell r="E7">
-            <v>9.1747939310883903E-2</v>
+            <v>0.10548854047812201</v>
           </cell>
           <cell r="F7">
-            <v>8.4741945033426594E-2</v>
+            <v>0.121173638645331</v>
           </cell>
           <cell r="G7">
-            <v>8.9668262222516795E-2</v>
+            <v>9.90410424651781E-2</v>
           </cell>
           <cell r="H7">
-            <v>0.11371877750484199</v>
+            <v>0.113239098694562</v>
           </cell>
           <cell r="I7">
-            <v>9.9548636290157796E-2</v>
+            <v>9.1583500950753099E-2</v>
           </cell>
           <cell r="J7">
-            <v>9.3233431442747497E-2</v>
+            <v>8.9453449373618099E-2</v>
           </cell>
           <cell r="K7">
-            <v>8.6522859818336503E-2</v>
+            <v>8.7312168212882693E-2</v>
           </cell>
           <cell r="L7">
-            <v>0.101484228846577</v>
+            <v>9.4454203028153799E-2</v>
           </cell>
           <cell r="M7">
-            <v>8.2351046499276201E-2</v>
+            <v>0.101823798747209</v>
           </cell>
         </row>
         <row r="8">
@@ -3076,40 +3076,40 @@
             <v>Max</v>
           </cell>
           <cell r="B8">
-            <v>0.132985882560266</v>
+            <v>0.17313935009082401</v>
           </cell>
           <cell r="C8">
-            <v>9.5676110633072506E-2</v>
+            <v>0.122533181558713</v>
           </cell>
           <cell r="D8">
-            <v>0.136858970210953</v>
+            <v>0.20273228143849301</v>
           </cell>
           <cell r="E8">
-            <v>0.112552942005598</v>
+            <v>0.148146013377674</v>
           </cell>
           <cell r="F8">
-            <v>0.101267730273818</v>
+            <v>0.155185358711665</v>
           </cell>
           <cell r="G8">
-            <v>0.118379208519842</v>
+            <v>0.117311915814917</v>
           </cell>
           <cell r="H8">
-            <v>0.14799472503566599</v>
+            <v>0.148205663747767</v>
           </cell>
           <cell r="I8">
-            <v>0.11727497638933</v>
+            <v>0.11116659503262399</v>
           </cell>
           <cell r="J8">
-            <v>0.109563227629527</v>
+            <v>0.121590153106499</v>
           </cell>
           <cell r="K8">
-            <v>0.10637113451208199</v>
+            <v>0.110839862779646</v>
           </cell>
           <cell r="L8">
-            <v>0.12325312715327701</v>
+            <v>0.113916569200288</v>
           </cell>
           <cell r="M8">
-            <v>0.10062150399876001</v>
+            <v>0.122188567423882</v>
           </cell>
         </row>
         <row r="9">
@@ -3117,40 +3117,40 @@
             <v>MAD</v>
           </cell>
           <cell r="B9">
-            <v>1.69542634008432E-2</v>
+            <v>3.1011619518947701E-2</v>
           </cell>
           <cell r="C9">
-            <v>8.5800549510193901E-3</v>
+            <v>2.0818676472495402E-2</v>
           </cell>
           <cell r="D9">
-            <v>1.5450016362780299E-2</v>
+            <v>3.7550644487995298E-2</v>
           </cell>
           <cell r="E9">
-            <v>1.7076730206708399E-2</v>
+            <v>3.4175504210968002E-2</v>
           </cell>
           <cell r="F9">
-            <v>1.24767041022396E-2</v>
+            <v>2.0263532890124499E-2</v>
           </cell>
           <cell r="G9">
-            <v>1.2787250990003499E-2</v>
+            <v>1.6864882022195899E-2</v>
           </cell>
           <cell r="H9">
-            <v>2.4387028725670501E-2</v>
+            <v>2.39943166574802E-2</v>
           </cell>
           <cell r="I9">
-            <v>1.4967468416413599E-2</v>
+            <v>1.5698895108715201E-2</v>
           </cell>
           <cell r="J9">
-            <v>1.58876405328265E-2</v>
+            <v>2.1649175416720699E-2</v>
           </cell>
           <cell r="K9">
-            <v>1.5872213305063301E-2</v>
+            <v>1.3989279625497E-2</v>
           </cell>
           <cell r="L9">
-            <v>1.91330078670401E-2</v>
+            <v>2.3296352747876399E-2</v>
           </cell>
           <cell r="M9">
-            <v>1.3488153963403899E-2</v>
+            <v>3.0214934319676898E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -3158,40 +3158,40 @@
             <v>IQR</v>
           </cell>
           <cell r="B10">
-            <v>2.27533399189465E-2</v>
+            <v>4.0651707612885599E-2</v>
           </cell>
           <cell r="C10">
-            <v>1.21178790705961E-2</v>
+            <v>2.9826955348955801E-2</v>
           </cell>
           <cell r="D10">
-            <v>2.02659711702423E-2</v>
+            <v>4.89868340912262E-2</v>
           </cell>
           <cell r="E10">
-            <v>2.2758642383038302E-2</v>
+            <v>4.5881552409790603E-2</v>
           </cell>
           <cell r="F10">
-            <v>1.5866084515405301E-2</v>
+            <v>2.8539938180305199E-2</v>
           </cell>
           <cell r="G10">
-            <v>1.6935057820127698E-2</v>
+            <v>2.4201807260720101E-2</v>
           </cell>
           <cell r="H10">
-            <v>3.3500681731363099E-2</v>
+            <v>2.9592131058942699E-2</v>
           </cell>
           <cell r="I10">
-            <v>1.8703856832410298E-2</v>
+            <v>2.35809688841544E-2</v>
           </cell>
           <cell r="J10">
-            <v>2.0342698279507299E-2</v>
+            <v>2.9640811571215699E-2</v>
           </cell>
           <cell r="K10">
-            <v>2.1310612103210998E-2</v>
+            <v>1.80089422988099E-2</v>
           </cell>
           <cell r="L10">
-            <v>2.60428089186855E-2</v>
+            <v>3.0706130378166E-2</v>
           </cell>
           <cell r="M10">
-            <v>1.95607392066071E-2</v>
+            <v>4.5755441605659898E-2</v>
           </cell>
         </row>
         <row r="11">
@@ -3199,40 +3199,40 @@
             <v>CV</v>
           </cell>
           <cell r="B11">
-            <v>0.16994633197713299</v>
+            <v>0.28542070137272901</v>
           </cell>
           <cell r="C11">
-            <v>0.14016328475112999</v>
+            <v>0.23515092642785801</v>
           </cell>
           <cell r="D11">
-            <v>0.21714274142086601</v>
+            <v>0.31085304371635702</v>
           </cell>
           <cell r="E11">
-            <v>0.175207239557478</v>
+            <v>0.33893933425667899</v>
           </cell>
           <cell r="F11">
-            <v>0.13201496854449701</v>
+            <v>0.21430935627665501</v>
           </cell>
           <cell r="G11">
-            <v>0.16859167785954399</v>
+            <v>0.20997364508323499</v>
           </cell>
           <cell r="H11">
-            <v>0.20330995149220199</v>
+            <v>0.22273560500950301</v>
           </cell>
           <cell r="I11">
-            <v>0.16074920994130901</v>
+            <v>0.210090338195594</v>
           </cell>
           <cell r="J11">
-            <v>0.17169599230943799</v>
+            <v>0.241531319382145</v>
           </cell>
           <cell r="K11">
-            <v>0.17592464423481899</v>
+            <v>0.180520433029282</v>
           </cell>
           <cell r="L11">
-            <v>0.180983912084862</v>
+            <v>0.22014521587864599</v>
           </cell>
           <cell r="M11">
-            <v>0.17297297452827301</v>
+            <v>0.30690766882770598</v>
           </cell>
         </row>
         <row r="12">
@@ -3240,40 +3240,40 @@
             <v>Skewness</v>
           </cell>
           <cell r="B12">
-            <v>0.74616379381097697</v>
+            <v>-6.3112666575605603E-2</v>
           </cell>
           <cell r="C12">
-            <v>0.17312332744343301</v>
+            <v>-1.8973559544133298E-2</v>
           </cell>
           <cell r="D12">
-            <v>0.80545838595790498</v>
+            <v>0.33165125157495801</v>
           </cell>
           <cell r="E12">
-            <v>-0.21959498226416899</v>
+            <v>0.26953596584113898</v>
           </cell>
           <cell r="F12">
-            <v>0.30393780473648102</v>
+            <v>-0.49240921314503899</v>
           </cell>
           <cell r="G12">
-            <v>0.49269580007268399</v>
+            <v>-0.600626770937848</v>
           </cell>
           <cell r="H12">
-            <v>0.148655186790873</v>
+            <v>0.116004587578748</v>
           </cell>
           <cell r="I12">
-            <v>7.3545999006512194E-2</v>
+            <v>-0.41184128275821802</v>
           </cell>
           <cell r="J12">
-            <v>2.87899296696826E-2</v>
+            <v>0.26867010970539401</v>
           </cell>
           <cell r="K12">
-            <v>0.196219012417755</v>
+            <v>4.6188722258234102E-2</v>
           </cell>
           <cell r="L12">
-            <v>3.1086192517985101E-2</v>
+            <v>-1.37176896110691E-2</v>
           </cell>
           <cell r="M12">
-            <v>5.4521397159784303E-2</v>
+            <v>-0.19400109665909299</v>
           </cell>
         </row>
         <row r="13">
@@ -3322,40 +3322,40 @@
             <v>Kurtosis</v>
           </cell>
           <cell r="B14">
-            <v>8.2143273225582902E-2</v>
+            <v>-0.80352218803665199</v>
           </cell>
           <cell r="C14">
-            <v>0.46621738248397598</v>
+            <v>-0.63701195472633398</v>
           </cell>
           <cell r="D14">
-            <v>-2.31277260512988E-2</v>
+            <v>-0.60440985996519603</v>
           </cell>
           <cell r="E14">
-            <v>-0.70750879674599199</v>
+            <v>-0.91699231507274603</v>
           </cell>
           <cell r="F14">
-            <v>-0.74032245746807201</v>
+            <v>-0.49176907770992401</v>
           </cell>
           <cell r="G14">
-            <v>0.204896262798651</v>
+            <v>-0.26040607612413402</v>
           </cell>
           <cell r="H14">
-            <v>-0.799892332649912</v>
+            <v>-0.61258981080719499</v>
           </cell>
           <cell r="I14">
-            <v>-0.81898446224713695</v>
+            <v>-0.22870162473469899</v>
           </cell>
           <cell r="J14">
-            <v>-0.839561870181599</v>
+            <v>-0.62831596977246196</v>
           </cell>
           <cell r="K14">
-            <v>-0.94911696600892403</v>
+            <v>-0.61575760179222705</v>
           </cell>
           <cell r="L14">
-            <v>-0.99119974047108095</v>
+            <v>-1.2248719538509101</v>
           </cell>
           <cell r="M14">
-            <v>-0.71378677394073298</v>
+            <v>-1.39834675763853</v>
           </cell>
         </row>
         <row r="15">
@@ -3450,7 +3450,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="monthly_3f_env_ratios_stats"/>
+      <sheetName val="daily_6f_env_ratios_stats"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3459,40 +3459,40 @@
             <v>Mean</v>
           </cell>
           <cell r="B2">
-            <v>0.112517720602722</v>
+            <v>8.68567741266838E-2</v>
           </cell>
           <cell r="C2">
-            <v>9.0889514148420503E-2</v>
+            <v>7.0435855056790495E-2</v>
           </cell>
           <cell r="D2">
-            <v>0.105176011332586</v>
+            <v>8.3550498267471698E-2</v>
           </cell>
           <cell r="E2">
-            <v>8.8788705638353199E-2</v>
+            <v>8.01983634969268E-2</v>
           </cell>
           <cell r="F2">
-            <v>0.104122354057834</v>
+            <v>7.74609406152372E-2</v>
           </cell>
           <cell r="G2">
-            <v>9.8289053022526496E-2</v>
+            <v>8.0586960959817905E-2</v>
           </cell>
           <cell r="H2">
-            <v>0.12436160776369901</v>
+            <v>9.8299395834364797E-2</v>
           </cell>
           <cell r="I2">
-            <v>9.8371448159203595E-2</v>
+            <v>8.9970542026014594E-2</v>
           </cell>
           <cell r="J2">
-            <v>0.11218825642611201</v>
+            <v>8.2528623475740304E-2</v>
           </cell>
           <cell r="K2">
-            <v>8.6516386004238499E-2</v>
+            <v>7.6142355425238201E-2</v>
           </cell>
           <cell r="L2">
-            <v>0.11573247450518399</v>
+            <v>8.8854751143623401E-2</v>
           </cell>
           <cell r="M2">
-            <v>8.5902156619235198E-2</v>
+            <v>7.1890526423175505E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -3500,40 +3500,40 @@
             <v>Std.Dev</v>
           </cell>
           <cell r="B3">
-            <v>2.0537995182537998E-2</v>
+            <v>1.47609901701963E-2</v>
           </cell>
           <cell r="C3">
-            <v>1.40055885971775E-2</v>
+            <v>9.8725208090142298E-3</v>
           </cell>
           <cell r="D3">
-            <v>2.0701299026403799E-2</v>
+            <v>1.81423842408781E-2</v>
           </cell>
           <cell r="E3">
-            <v>1.4119181188839701E-2</v>
+            <v>1.40513338853238E-2</v>
           </cell>
           <cell r="F3">
-            <v>1.8693611094304001E-2</v>
+            <v>1.02260036387477E-2</v>
           </cell>
           <cell r="G3">
-            <v>1.93180682979519E-2</v>
+            <v>1.35862909618173E-2</v>
           </cell>
           <cell r="H3">
-            <v>1.5903988337371899E-2</v>
+            <v>1.9985245398797501E-2</v>
           </cell>
           <cell r="I3">
-            <v>2.1577327510648801E-2</v>
+            <v>1.4462693548673199E-2</v>
           </cell>
           <cell r="J3">
-            <v>1.90526835608971E-2</v>
+            <v>1.41698339015992E-2</v>
           </cell>
           <cell r="K3">
-            <v>1.3051700336071601E-2</v>
+            <v>1.33953167893862E-2</v>
           </cell>
           <cell r="L3">
-            <v>1.9586231384974999E-2</v>
+            <v>1.60812804692998E-2</v>
           </cell>
           <cell r="M3">
-            <v>1.2534266616375999E-2</v>
+            <v>1.2435118195819999E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -3541,40 +3541,40 @@
             <v>Min</v>
           </cell>
           <cell r="B4">
-            <v>8.4760337062098207E-2</v>
+            <v>6.4132985118942998E-2</v>
           </cell>
           <cell r="C4">
-            <v>6.5624144564742401E-2</v>
+            <v>4.4265011537557498E-2</v>
           </cell>
           <cell r="D4">
-            <v>7.7881316010946194E-2</v>
+            <v>5.53428950781635E-2</v>
           </cell>
           <cell r="E4">
-            <v>5.8014391332389802E-2</v>
+            <v>4.7938705732983401E-2</v>
           </cell>
           <cell r="F4">
-            <v>6.3244635674810298E-2</v>
+            <v>5.7005801494430602E-2</v>
           </cell>
           <cell r="G4">
-            <v>7.32832880653288E-2</v>
+            <v>4.8566265999887198E-2</v>
           </cell>
           <cell r="H4">
-            <v>0.101551805388599</v>
+            <v>6.3911589416079204E-2</v>
           </cell>
           <cell r="I4">
-            <v>6.7629424971617197E-2</v>
+            <v>6.1944745434824297E-2</v>
           </cell>
           <cell r="J4">
-            <v>7.7076095705164799E-2</v>
+            <v>5.35161786900889E-2</v>
           </cell>
           <cell r="K4">
-            <v>6.4833234685891E-2</v>
+            <v>5.3234145564586201E-2</v>
           </cell>
           <cell r="L4">
-            <v>8.2274772421349202E-2</v>
+            <v>5.5830037191812197E-2</v>
           </cell>
           <cell r="M4">
-            <v>6.5751576597608705E-2</v>
+            <v>4.4917820511692401E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -3582,40 +3582,40 @@
             <v>Q1</v>
           </cell>
           <cell r="B5">
-            <v>9.4655455498948604E-2</v>
+            <v>7.4178878614598404E-2</v>
           </cell>
           <cell r="C5">
-            <v>8.2852693048160994E-2</v>
+            <v>6.4267170347588207E-2</v>
           </cell>
           <cell r="D5">
-            <v>8.9115920410534802E-2</v>
+            <v>7.1166124985010196E-2</v>
           </cell>
           <cell r="E5">
-            <v>7.4708385917211503E-2</v>
+            <v>6.8421671372624004E-2</v>
           </cell>
           <cell r="F5">
-            <v>9.0562576929793498E-2</v>
+            <v>6.8587527602738604E-2</v>
           </cell>
           <cell r="G5">
-            <v>8.26160395487886E-2</v>
+            <v>7.11624665258829E-2</v>
           </cell>
           <cell r="H5">
-            <v>0.11074287631661101</v>
+            <v>7.8249058000624802E-2</v>
           </cell>
           <cell r="I5">
-            <v>7.6923632278848603E-2</v>
+            <v>7.98445260929566E-2</v>
           </cell>
           <cell r="J5">
-            <v>9.9067036657393498E-2</v>
+            <v>7.2048989835612504E-2</v>
           </cell>
           <cell r="K5">
-            <v>7.6477066349775094E-2</v>
+            <v>6.4619384646746006E-2</v>
           </cell>
           <cell r="L5">
-            <v>0.10166193521526801</v>
+            <v>7.5291667905133003E-2</v>
           </cell>
           <cell r="M5">
-            <v>7.5958728775226095E-2</v>
+            <v>6.20959549669894E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -3623,40 +3623,40 @@
             <v>Median</v>
           </cell>
           <cell r="B6">
-            <v>0.106879338848756</v>
+            <v>8.5614372612199396E-2</v>
           </cell>
           <cell r="C6">
-            <v>9.2218452095175901E-2</v>
+            <v>6.9876006976892099E-2</v>
           </cell>
           <cell r="D6">
-            <v>9.8193711346983001E-2</v>
+            <v>7.8351127556125194E-2</v>
           </cell>
           <cell r="E6">
-            <v>9.0934663680811503E-2</v>
+            <v>8.2185569863925501E-2</v>
           </cell>
           <cell r="F6">
-            <v>0.104820561635698</v>
+            <v>7.7747169192943694E-2</v>
           </cell>
           <cell r="G6">
-            <v>9.82608356067564E-2</v>
+            <v>7.9787349157748197E-2</v>
           </cell>
           <cell r="H6">
-            <v>0.12272523064778</v>
+            <v>9.7900720452914994E-2</v>
           </cell>
           <cell r="I6">
-            <v>9.4198899775154901E-2</v>
+            <v>8.9943345392432802E-2</v>
           </cell>
           <cell r="J6">
-            <v>0.111244403882367</v>
+            <v>8.1605274910361403E-2</v>
           </cell>
           <cell r="K6">
-            <v>8.2534202700830797E-2</v>
+            <v>7.5325045853452705E-2</v>
           </cell>
           <cell r="L6">
-            <v>0.11852537658003</v>
+            <v>8.6680250416273003E-2</v>
           </cell>
           <cell r="M6">
-            <v>8.2698213464722795E-2</v>
+            <v>7.1081645976350694E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -3664,40 +3664,40 @@
             <v>Q3</v>
           </cell>
           <cell r="B7">
-            <v>0.126108219360588</v>
+            <v>9.9427566796513003E-2</v>
           </cell>
           <cell r="C7">
-            <v>9.7177549954365394E-2</v>
+            <v>7.7179286877347E-2</v>
           </cell>
           <cell r="D7">
-            <v>0.12509596834869099</v>
+            <v>9.2624128091403093E-2</v>
           </cell>
           <cell r="E7">
-            <v>0.100793035290208</v>
+            <v>9.1747939310883903E-2</v>
           </cell>
           <cell r="F7">
-            <v>0.123184179587704</v>
+            <v>8.4741945033426594E-2</v>
           </cell>
           <cell r="G7">
-            <v>0.10713924053804801</v>
+            <v>8.9668262222516795E-2</v>
           </cell>
           <cell r="H7">
-            <v>0.134906188184444</v>
+            <v>0.11371877750484199</v>
           </cell>
           <cell r="I7">
-            <v>0.115772070269965</v>
+            <v>9.9548636290157796E-2</v>
           </cell>
           <cell r="J7">
-            <v>0.12534634606564601</v>
+            <v>9.3233431442747497E-2</v>
           </cell>
           <cell r="K7">
-            <v>9.3573726206569494E-2</v>
+            <v>8.6522859818336503E-2</v>
           </cell>
           <cell r="L7">
-            <v>0.124800832880575</v>
+            <v>0.101484228846577</v>
           </cell>
           <cell r="M7">
-            <v>9.6926134557259E-2</v>
+            <v>8.2351046499276201E-2</v>
           </cell>
         </row>
         <row r="8">
@@ -3705,40 +3705,40 @@
             <v>Max</v>
           </cell>
           <cell r="B8">
-            <v>0.15121372001879599</v>
+            <v>0.132985882560266</v>
           </cell>
           <cell r="C8">
-            <v>0.129935428640404</v>
+            <v>9.5676110633072506E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.15861791815492801</v>
+            <v>0.136858970210953</v>
           </cell>
           <cell r="E8">
-            <v>0.110090405126121</v>
+            <v>0.112552942005598</v>
           </cell>
           <cell r="F8">
-            <v>0.13331174112726801</v>
+            <v>0.101267730273818</v>
           </cell>
           <cell r="G8">
-            <v>0.144554186048517</v>
+            <v>0.118379208519842</v>
           </cell>
           <cell r="H8">
-            <v>0.15970973511342501</v>
+            <v>0.14799472503566599</v>
           </cell>
           <cell r="I8">
-            <v>0.13598913680104199</v>
+            <v>0.11727497638933</v>
           </cell>
           <cell r="J8">
-            <v>0.15389232796812299</v>
+            <v>0.109563227629527</v>
           </cell>
           <cell r="K8">
-            <v>0.11997297995855701</v>
+            <v>0.10637113451208199</v>
           </cell>
           <cell r="L8">
-            <v>0.153104608727789</v>
+            <v>0.12325312715327701</v>
           </cell>
           <cell r="M8">
-            <v>0.11490750065793</v>
+            <v>0.10062150399876001</v>
           </cell>
         </row>
         <row r="9">
@@ -3746,40 +3746,40 @@
             <v>MAD</v>
           </cell>
           <cell r="B9">
-            <v>1.9789895047831199E-2</v>
+            <v>1.69542634008432E-2</v>
           </cell>
           <cell r="C9">
-            <v>1.27437104966434E-2</v>
+            <v>8.5800549510193901E-3</v>
           </cell>
           <cell r="D9">
-            <v>1.5202615416748401E-2</v>
+            <v>1.5450016362780299E-2</v>
           </cell>
           <cell r="E9">
-            <v>1.60552832848215E-2</v>
+            <v>1.7076730206708399E-2</v>
           </cell>
           <cell r="F9">
-            <v>2.1138888124974001E-2</v>
+            <v>1.24767041022396E-2</v>
           </cell>
           <cell r="G9">
-            <v>1.74302872460145E-2</v>
+            <v>1.2787250990003499E-2</v>
           </cell>
           <cell r="H9">
-            <v>1.7935903751371201E-2</v>
+            <v>2.4387028725670501E-2</v>
           </cell>
           <cell r="I9">
-            <v>2.5612311590023799E-2</v>
+            <v>1.4967468416413599E-2</v>
           </cell>
           <cell r="J9">
-            <v>1.8054164647745501E-2</v>
+            <v>1.58876405328265E-2</v>
           </cell>
           <cell r="K9">
-            <v>9.1029762273888305E-3</v>
+            <v>1.5872213305063301E-2</v>
           </cell>
           <cell r="L9">
-            <v>2.0407479533445901E-2</v>
+            <v>1.91330078670401E-2</v>
           </cell>
           <cell r="M9">
-            <v>1.38450005961931E-2</v>
+            <v>1.3488153963403899E-2</v>
           </cell>
         </row>
         <row r="10">
@@ -3787,40 +3787,40 @@
             <v>IQR</v>
           </cell>
           <cell r="B10">
-            <v>2.9271954626105399E-2</v>
+            <v>2.27533399189465E-2</v>
           </cell>
           <cell r="C10">
-            <v>1.40867784322156E-2</v>
+            <v>1.21178790705961E-2</v>
           </cell>
           <cell r="D10">
-            <v>2.6213507442374301E-2</v>
+            <v>2.02659711702423E-2</v>
           </cell>
           <cell r="E10">
-            <v>2.30123765362872E-2</v>
+            <v>2.2758642383038302E-2</v>
           </cell>
           <cell r="F10">
-            <v>2.9399359454417202E-2</v>
+            <v>1.5866084515405301E-2</v>
           </cell>
           <cell r="G10">
-            <v>2.2775786486314401E-2</v>
+            <v>1.6935057820127698E-2</v>
           </cell>
           <cell r="H10">
-            <v>2.37323104901382E-2</v>
+            <v>3.3500681731363099E-2</v>
           </cell>
           <cell r="I10">
-            <v>3.3945593069627397E-2</v>
+            <v>1.8703856832410298E-2</v>
           </cell>
           <cell r="J10">
-            <v>2.3180130798994999E-2</v>
+            <v>2.0342698279507299E-2</v>
           </cell>
           <cell r="K10">
-            <v>1.5405605440574999E-2</v>
+            <v>2.1310612103210998E-2</v>
           </cell>
           <cell r="L10">
-            <v>2.0322319415518299E-2</v>
+            <v>2.60428089186855E-2</v>
           </cell>
           <cell r="M10">
-            <v>1.9478440326438799E-2</v>
+            <v>1.95607392066071E-2</v>
           </cell>
         </row>
         <row r="11">
@@ -3828,40 +3828,40 @@
             <v>CV</v>
           </cell>
           <cell r="B11">
-            <v>0.182531205507208</v>
+            <v>0.16994633197713299</v>
           </cell>
           <cell r="C11">
-            <v>0.15409465798559199</v>
+            <v>0.14016328475112999</v>
           </cell>
           <cell r="D11">
-            <v>0.19682529090157599</v>
+            <v>0.21714274142086601</v>
           </cell>
           <cell r="E11">
-            <v>0.15902001372053701</v>
+            <v>0.175207239557478</v>
           </cell>
           <cell r="F11">
-            <v>0.17953504089929501</v>
+            <v>0.13201496854449701</v>
           </cell>
           <cell r="G11">
-            <v>0.19654343697384499</v>
+            <v>0.16859167785954399</v>
           </cell>
           <cell r="H11">
-            <v>0.127885033197635</v>
+            <v>0.20330995149220199</v>
           </cell>
           <cell r="I11">
-            <v>0.21934542913029201</v>
+            <v>0.16074920994130901</v>
           </cell>
           <cell r="J11">
-            <v>0.16982778918081601</v>
+            <v>0.17169599230943799</v>
           </cell>
           <cell r="K11">
-            <v>0.15085813149236499</v>
+            <v>0.17592464423481899</v>
           </cell>
           <cell r="L11">
-            <v>0.16923712612830799</v>
+            <v>0.180983912084862</v>
           </cell>
           <cell r="M11">
-            <v>0.14591329379464399</v>
+            <v>0.17297297452827301</v>
           </cell>
         </row>
         <row r="12">
@@ -3869,40 +3869,40 @@
             <v>Skewness</v>
           </cell>
           <cell r="B12">
-            <v>0.52659754935525804</v>
+            <v>0.74616379381097697</v>
           </cell>
           <cell r="C12">
-            <v>0.64829231395299103</v>
+            <v>0.17312332744343301</v>
           </cell>
           <cell r="D12">
-            <v>0.89921600415061398</v>
+            <v>0.80545838595790498</v>
           </cell>
           <cell r="E12">
-            <v>-0.28938623288903598</v>
+            <v>-0.21959498226416899</v>
           </cell>
           <cell r="F12">
-            <v>-0.19948969369629899</v>
+            <v>0.30393780473648102</v>
           </cell>
           <cell r="G12">
-            <v>0.66459811483869502</v>
+            <v>0.49269580007268399</v>
           </cell>
           <cell r="H12">
-            <v>0.30426207835975799</v>
+            <v>0.148655186790873</v>
           </cell>
           <cell r="I12">
-            <v>0.31751005159726697</v>
+            <v>7.3545999006512194E-2</v>
           </cell>
           <cell r="J12">
-            <v>0.15444522577031899</v>
+            <v>2.87899296696826E-2</v>
           </cell>
           <cell r="K12">
-            <v>0.85794577235994995</v>
+            <v>0.196219012417755</v>
           </cell>
           <cell r="L12">
-            <v>9.6309053870288402E-2</v>
+            <v>3.1086192517985101E-2</v>
           </cell>
           <cell r="M12">
-            <v>0.43821488903060202</v>
+            <v>5.4521397159784303E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -3910,40 +3910,40 @@
             <v>SE.Skewness</v>
           </cell>
           <cell r="B13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="C13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="D13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
           <cell r="E13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
           <cell r="F13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="G13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="H13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
           <cell r="I13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
           <cell r="J13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="K13">
-            <v>0.44785201637530703</v>
+            <v>0.27054479931869102</v>
           </cell>
           <cell r="L13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
           <cell r="M13">
-            <v>0.48133666148027998</v>
+            <v>0.29283625195482998</v>
           </cell>
         </row>
         <row r="14">
@@ -3951,40 +3951,40 @@
             <v>Kurtosis</v>
           </cell>
           <cell r="B14">
-            <v>-0.87420115561351597</v>
+            <v>8.2143273225582902E-2</v>
           </cell>
           <cell r="C14">
-            <v>0.79197728904682296</v>
+            <v>0.46621738248397598</v>
           </cell>
           <cell r="D14">
-            <v>-0.15280039174919099</v>
+            <v>-2.31277260512988E-2</v>
           </cell>
           <cell r="E14">
-            <v>-0.95046257189817096</v>
+            <v>-0.70750879674599199</v>
           </cell>
           <cell r="F14">
-            <v>-0.88324267827793201</v>
+            <v>-0.74032245746807201</v>
           </cell>
           <cell r="G14">
-            <v>-0.27444717204144498</v>
+            <v>0.204896262798651</v>
           </cell>
           <cell r="H14">
-            <v>-0.93895922095536699</v>
+            <v>-0.799892332649912</v>
           </cell>
           <cell r="I14">
-            <v>-1.32677975504614</v>
+            <v>-0.81898446224713695</v>
           </cell>
           <cell r="J14">
-            <v>-0.70452895318182296</v>
+            <v>-0.839561870181599</v>
           </cell>
           <cell r="K14">
-            <v>-9.4312578903051697E-2</v>
+            <v>-0.94911696600892403</v>
           </cell>
           <cell r="L14">
-            <v>-0.85934371596204095</v>
+            <v>-0.99119974047108095</v>
           </cell>
           <cell r="M14">
-            <v>-0.77939215508436099</v>
+            <v>-0.71378677394073298</v>
           </cell>
         </row>
         <row r="15">
@@ -3992,40 +3992,40 @@
             <v>N.Valid</v>
           </cell>
           <cell r="B15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="C15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="D15">
-            <v>23</v>
+            <v>67</v>
           </cell>
           <cell r="E15">
-            <v>23</v>
+            <v>67</v>
           </cell>
           <cell r="F15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="G15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="H15">
-            <v>23</v>
+            <v>67</v>
           </cell>
           <cell r="I15">
-            <v>23</v>
+            <v>67</v>
           </cell>
           <cell r="J15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="K15">
-            <v>27</v>
+            <v>79</v>
           </cell>
           <cell r="L15">
-            <v>23</v>
+            <v>67</v>
           </cell>
           <cell r="M15">
-            <v>23</v>
+            <v>67</v>
           </cell>
         </row>
         <row r="16">
@@ -8294,933 +8294,933 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A2</f>
+        <f>[4]monthly_3f_env_ratios_stats!A2</f>
         <v>Mean</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B2</f>
+        <f>[4]monthly_3f_env_ratios_stats!B2</f>
         <v>0.112517720602722</v>
       </c>
       <c r="D50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C2</f>
+        <f>[4]monthly_3f_env_ratios_stats!C2</f>
         <v>9.0889514148420503E-2</v>
       </c>
       <c r="E50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D2</f>
+        <f>[4]monthly_3f_env_ratios_stats!D2</f>
         <v>0.105176011332586</v>
       </c>
       <c r="F50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E2</f>
+        <f>[4]monthly_3f_env_ratios_stats!E2</f>
         <v>8.8788705638353199E-2</v>
       </c>
       <c r="G50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F2</f>
+        <f>[4]monthly_3f_env_ratios_stats!F2</f>
         <v>0.104122354057834</v>
       </c>
       <c r="H50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G2</f>
+        <f>[4]monthly_3f_env_ratios_stats!G2</f>
         <v>9.8289053022526496E-2</v>
       </c>
       <c r="I50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H2</f>
+        <f>[4]monthly_3f_env_ratios_stats!H2</f>
         <v>0.12436160776369901</v>
       </c>
       <c r="J50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I2</f>
+        <f>[4]monthly_3f_env_ratios_stats!I2</f>
         <v>9.8371448159203595E-2</v>
       </c>
       <c r="K50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J2</f>
+        <f>[4]monthly_3f_env_ratios_stats!J2</f>
         <v>0.11218825642611201</v>
       </c>
       <c r="L50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K2</f>
+        <f>[4]monthly_3f_env_ratios_stats!K2</f>
         <v>8.6516386004238499E-2</v>
       </c>
       <c r="M50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L2</f>
+        <f>[4]monthly_3f_env_ratios_stats!L2</f>
         <v>0.11573247450518399</v>
       </c>
       <c r="N50" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M2</f>
+        <f>[4]monthly_3f_env_ratios_stats!M2</f>
         <v>8.5902156619235198E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A3</f>
+        <f>[4]monthly_3f_env_ratios_stats!A3</f>
         <v>Std.Dev</v>
       </c>
       <c r="B51" t="str">
-        <f>B50</f>
+        <f t="shared" ref="B51:B64" si="3">B50</f>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B3</f>
+        <f>[4]monthly_3f_env_ratios_stats!B3</f>
         <v>2.0537995182537998E-2</v>
       </c>
       <c r="D51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C3</f>
+        <f>[4]monthly_3f_env_ratios_stats!C3</f>
         <v>1.40055885971775E-2</v>
       </c>
       <c r="E51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D3</f>
+        <f>[4]monthly_3f_env_ratios_stats!D3</f>
         <v>2.0701299026403799E-2</v>
       </c>
       <c r="F51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E3</f>
+        <f>[4]monthly_3f_env_ratios_stats!E3</f>
         <v>1.4119181188839701E-2</v>
       </c>
       <c r="G51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F3</f>
+        <f>[4]monthly_3f_env_ratios_stats!F3</f>
         <v>1.8693611094304001E-2</v>
       </c>
       <c r="H51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G3</f>
+        <f>[4]monthly_3f_env_ratios_stats!G3</f>
         <v>1.93180682979519E-2</v>
       </c>
       <c r="I51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H3</f>
+        <f>[4]monthly_3f_env_ratios_stats!H3</f>
         <v>1.5903988337371899E-2</v>
       </c>
       <c r="J51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I3</f>
+        <f>[4]monthly_3f_env_ratios_stats!I3</f>
         <v>2.1577327510648801E-2</v>
       </c>
       <c r="K51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J3</f>
+        <f>[4]monthly_3f_env_ratios_stats!J3</f>
         <v>1.90526835608971E-2</v>
       </c>
       <c r="L51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K3</f>
+        <f>[4]monthly_3f_env_ratios_stats!K3</f>
         <v>1.3051700336071601E-2</v>
       </c>
       <c r="M51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L3</f>
+        <f>[4]monthly_3f_env_ratios_stats!L3</f>
         <v>1.9586231384974999E-2</v>
       </c>
       <c r="N51" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M3</f>
+        <f>[4]monthly_3f_env_ratios_stats!M3</f>
         <v>1.2534266616375999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A4</f>
+        <f>[4]monthly_3f_env_ratios_stats!A4</f>
         <v>Min</v>
       </c>
       <c r="B52" t="str">
-        <f>B51</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B4</f>
+        <f>[4]monthly_3f_env_ratios_stats!B4</f>
         <v>8.4760337062098207E-2</v>
       </c>
       <c r="D52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C4</f>
+        <f>[4]monthly_3f_env_ratios_stats!C4</f>
         <v>6.5624144564742401E-2</v>
       </c>
       <c r="E52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D4</f>
+        <f>[4]monthly_3f_env_ratios_stats!D4</f>
         <v>7.7881316010946194E-2</v>
       </c>
       <c r="F52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E4</f>
+        <f>[4]monthly_3f_env_ratios_stats!E4</f>
         <v>5.8014391332389802E-2</v>
       </c>
       <c r="G52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F4</f>
+        <f>[4]monthly_3f_env_ratios_stats!F4</f>
         <v>6.3244635674810298E-2</v>
       </c>
       <c r="H52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G4</f>
+        <f>[4]monthly_3f_env_ratios_stats!G4</f>
         <v>7.32832880653288E-2</v>
       </c>
       <c r="I52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H4</f>
+        <f>[4]monthly_3f_env_ratios_stats!H4</f>
         <v>0.101551805388599</v>
       </c>
       <c r="J52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I4</f>
+        <f>[4]monthly_3f_env_ratios_stats!I4</f>
         <v>6.7629424971617197E-2</v>
       </c>
       <c r="K52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J4</f>
+        <f>[4]monthly_3f_env_ratios_stats!J4</f>
         <v>7.7076095705164799E-2</v>
       </c>
       <c r="L52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K4</f>
+        <f>[4]monthly_3f_env_ratios_stats!K4</f>
         <v>6.4833234685891E-2</v>
       </c>
       <c r="M52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L4</f>
+        <f>[4]monthly_3f_env_ratios_stats!L4</f>
         <v>8.2274772421349202E-2</v>
       </c>
       <c r="N52" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M4</f>
+        <f>[4]monthly_3f_env_ratios_stats!M4</f>
         <v>6.5751576597608705E-2</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A5</f>
+        <f>[4]monthly_3f_env_ratios_stats!A5</f>
         <v>Q1</v>
       </c>
       <c r="B53" t="str">
-        <f>B52</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B5</f>
+        <f>[4]monthly_3f_env_ratios_stats!B5</f>
         <v>9.4655455498948604E-2</v>
       </c>
       <c r="D53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C5</f>
+        <f>[4]monthly_3f_env_ratios_stats!C5</f>
         <v>8.2852693048160994E-2</v>
       </c>
       <c r="E53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D5</f>
+        <f>[4]monthly_3f_env_ratios_stats!D5</f>
         <v>8.9115920410534802E-2</v>
       </c>
       <c r="F53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E5</f>
+        <f>[4]monthly_3f_env_ratios_stats!E5</f>
         <v>7.4708385917211503E-2</v>
       </c>
       <c r="G53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F5</f>
+        <f>[4]monthly_3f_env_ratios_stats!F5</f>
         <v>9.0562576929793498E-2</v>
       </c>
       <c r="H53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G5</f>
+        <f>[4]monthly_3f_env_ratios_stats!G5</f>
         <v>8.26160395487886E-2</v>
       </c>
       <c r="I53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H5</f>
+        <f>[4]monthly_3f_env_ratios_stats!H5</f>
         <v>0.11074287631661101</v>
       </c>
       <c r="J53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I5</f>
+        <f>[4]monthly_3f_env_ratios_stats!I5</f>
         <v>7.6923632278848603E-2</v>
       </c>
       <c r="K53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J5</f>
+        <f>[4]monthly_3f_env_ratios_stats!J5</f>
         <v>9.9067036657393498E-2</v>
       </c>
       <c r="L53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K5</f>
+        <f>[4]monthly_3f_env_ratios_stats!K5</f>
         <v>7.6477066349775094E-2</v>
       </c>
       <c r="M53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L5</f>
+        <f>[4]monthly_3f_env_ratios_stats!L5</f>
         <v>0.10166193521526801</v>
       </c>
       <c r="N53" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M5</f>
+        <f>[4]monthly_3f_env_ratios_stats!M5</f>
         <v>7.5958728775226095E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A6</f>
+        <f>[4]monthly_3f_env_ratios_stats!A6</f>
         <v>Median</v>
       </c>
       <c r="B54" t="str">
-        <f>B53</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B6</f>
+        <f>[4]monthly_3f_env_ratios_stats!B6</f>
         <v>0.106879338848756</v>
       </c>
       <c r="D54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C6</f>
+        <f>[4]monthly_3f_env_ratios_stats!C6</f>
         <v>9.2218452095175901E-2</v>
       </c>
       <c r="E54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D6</f>
+        <f>[4]monthly_3f_env_ratios_stats!D6</f>
         <v>9.8193711346983001E-2</v>
       </c>
       <c r="F54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E6</f>
+        <f>[4]monthly_3f_env_ratios_stats!E6</f>
         <v>9.0934663680811503E-2</v>
       </c>
       <c r="G54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F6</f>
+        <f>[4]monthly_3f_env_ratios_stats!F6</f>
         <v>0.104820561635698</v>
       </c>
       <c r="H54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G6</f>
+        <f>[4]monthly_3f_env_ratios_stats!G6</f>
         <v>9.82608356067564E-2</v>
       </c>
       <c r="I54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H6</f>
+        <f>[4]monthly_3f_env_ratios_stats!H6</f>
         <v>0.12272523064778</v>
       </c>
       <c r="J54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I6</f>
+        <f>[4]monthly_3f_env_ratios_stats!I6</f>
         <v>9.4198899775154901E-2</v>
       </c>
       <c r="K54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J6</f>
+        <f>[4]monthly_3f_env_ratios_stats!J6</f>
         <v>0.111244403882367</v>
       </c>
       <c r="L54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K6</f>
+        <f>[4]monthly_3f_env_ratios_stats!K6</f>
         <v>8.2534202700830797E-2</v>
       </c>
       <c r="M54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L6</f>
+        <f>[4]monthly_3f_env_ratios_stats!L6</f>
         <v>0.11852537658003</v>
       </c>
       <c r="N54" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M6</f>
+        <f>[4]monthly_3f_env_ratios_stats!M6</f>
         <v>8.2698213464722795E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A7</f>
+        <f>[4]monthly_3f_env_ratios_stats!A7</f>
         <v>Q3</v>
       </c>
       <c r="B55" t="str">
-        <f>B54</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B7</f>
+        <f>[4]monthly_3f_env_ratios_stats!B7</f>
         <v>0.126108219360588</v>
       </c>
       <c r="D55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C7</f>
+        <f>[4]monthly_3f_env_ratios_stats!C7</f>
         <v>9.7177549954365394E-2</v>
       </c>
       <c r="E55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D7</f>
+        <f>[4]monthly_3f_env_ratios_stats!D7</f>
         <v>0.12509596834869099</v>
       </c>
       <c r="F55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E7</f>
+        <f>[4]monthly_3f_env_ratios_stats!E7</f>
         <v>0.100793035290208</v>
       </c>
       <c r="G55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F7</f>
+        <f>[4]monthly_3f_env_ratios_stats!F7</f>
         <v>0.123184179587704</v>
       </c>
       <c r="H55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G7</f>
+        <f>[4]monthly_3f_env_ratios_stats!G7</f>
         <v>0.10713924053804801</v>
       </c>
       <c r="I55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H7</f>
+        <f>[4]monthly_3f_env_ratios_stats!H7</f>
         <v>0.134906188184444</v>
       </c>
       <c r="J55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I7</f>
+        <f>[4]monthly_3f_env_ratios_stats!I7</f>
         <v>0.115772070269965</v>
       </c>
       <c r="K55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J7</f>
+        <f>[4]monthly_3f_env_ratios_stats!J7</f>
         <v>0.12534634606564601</v>
       </c>
       <c r="L55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K7</f>
+        <f>[4]monthly_3f_env_ratios_stats!K7</f>
         <v>9.3573726206569494E-2</v>
       </c>
       <c r="M55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L7</f>
+        <f>[4]monthly_3f_env_ratios_stats!L7</f>
         <v>0.124800832880575</v>
       </c>
       <c r="N55" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M7</f>
+        <f>[4]monthly_3f_env_ratios_stats!M7</f>
         <v>9.6926134557259E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A8</f>
+        <f>[4]monthly_3f_env_ratios_stats!A8</f>
         <v>Max</v>
       </c>
       <c r="B56" t="str">
-        <f>B55</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B8</f>
+        <f>[4]monthly_3f_env_ratios_stats!B8</f>
         <v>0.15121372001879599</v>
       </c>
       <c r="D56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C8</f>
+        <f>[4]monthly_3f_env_ratios_stats!C8</f>
         <v>0.129935428640404</v>
       </c>
       <c r="E56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D8</f>
+        <f>[4]monthly_3f_env_ratios_stats!D8</f>
         <v>0.15861791815492801</v>
       </c>
       <c r="F56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E8</f>
+        <f>[4]monthly_3f_env_ratios_stats!E8</f>
         <v>0.110090405126121</v>
       </c>
       <c r="G56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F8</f>
+        <f>[4]monthly_3f_env_ratios_stats!F8</f>
         <v>0.13331174112726801</v>
       </c>
       <c r="H56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G8</f>
+        <f>[4]monthly_3f_env_ratios_stats!G8</f>
         <v>0.144554186048517</v>
       </c>
       <c r="I56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H8</f>
+        <f>[4]monthly_3f_env_ratios_stats!H8</f>
         <v>0.15970973511342501</v>
       </c>
       <c r="J56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I8</f>
+        <f>[4]monthly_3f_env_ratios_stats!I8</f>
         <v>0.13598913680104199</v>
       </c>
       <c r="K56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J8</f>
+        <f>[4]monthly_3f_env_ratios_stats!J8</f>
         <v>0.15389232796812299</v>
       </c>
       <c r="L56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K8</f>
+        <f>[4]monthly_3f_env_ratios_stats!K8</f>
         <v>0.11997297995855701</v>
       </c>
       <c r="M56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L8</f>
+        <f>[4]monthly_3f_env_ratios_stats!L8</f>
         <v>0.153104608727789</v>
       </c>
       <c r="N56" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M8</f>
+        <f>[4]monthly_3f_env_ratios_stats!M8</f>
         <v>0.11490750065793</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A9</f>
+        <f>[4]monthly_3f_env_ratios_stats!A9</f>
         <v>MAD</v>
       </c>
       <c r="B57" t="str">
-        <f>B56</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B9</f>
+        <f>[4]monthly_3f_env_ratios_stats!B9</f>
         <v>1.9789895047831199E-2</v>
       </c>
       <c r="D57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C9</f>
+        <f>[4]monthly_3f_env_ratios_stats!C9</f>
         <v>1.27437104966434E-2</v>
       </c>
       <c r="E57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D9</f>
+        <f>[4]monthly_3f_env_ratios_stats!D9</f>
         <v>1.5202615416748401E-2</v>
       </c>
       <c r="F57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E9</f>
+        <f>[4]monthly_3f_env_ratios_stats!E9</f>
         <v>1.60552832848215E-2</v>
       </c>
       <c r="G57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F9</f>
+        <f>[4]monthly_3f_env_ratios_stats!F9</f>
         <v>2.1138888124974001E-2</v>
       </c>
       <c r="H57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G9</f>
+        <f>[4]monthly_3f_env_ratios_stats!G9</f>
         <v>1.74302872460145E-2</v>
       </c>
       <c r="I57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H9</f>
+        <f>[4]monthly_3f_env_ratios_stats!H9</f>
         <v>1.7935903751371201E-2</v>
       </c>
       <c r="J57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I9</f>
+        <f>[4]monthly_3f_env_ratios_stats!I9</f>
         <v>2.5612311590023799E-2</v>
       </c>
       <c r="K57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J9</f>
+        <f>[4]monthly_3f_env_ratios_stats!J9</f>
         <v>1.8054164647745501E-2</v>
       </c>
       <c r="L57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K9</f>
+        <f>[4]monthly_3f_env_ratios_stats!K9</f>
         <v>9.1029762273888305E-3</v>
       </c>
       <c r="M57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L9</f>
+        <f>[4]monthly_3f_env_ratios_stats!L9</f>
         <v>2.0407479533445901E-2</v>
       </c>
       <c r="N57" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M9</f>
+        <f>[4]monthly_3f_env_ratios_stats!M9</f>
         <v>1.38450005961931E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A10</f>
+        <f>[4]monthly_3f_env_ratios_stats!A10</f>
         <v>IQR</v>
       </c>
       <c r="B58" t="str">
-        <f>B57</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B10</f>
+        <f>[4]monthly_3f_env_ratios_stats!B10</f>
         <v>2.9271954626105399E-2</v>
       </c>
       <c r="D58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C10</f>
+        <f>[4]monthly_3f_env_ratios_stats!C10</f>
         <v>1.40867784322156E-2</v>
       </c>
       <c r="E58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D10</f>
+        <f>[4]monthly_3f_env_ratios_stats!D10</f>
         <v>2.6213507442374301E-2</v>
       </c>
       <c r="F58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E10</f>
+        <f>[4]monthly_3f_env_ratios_stats!E10</f>
         <v>2.30123765362872E-2</v>
       </c>
       <c r="G58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F10</f>
+        <f>[4]monthly_3f_env_ratios_stats!F10</f>
         <v>2.9399359454417202E-2</v>
       </c>
       <c r="H58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G10</f>
+        <f>[4]monthly_3f_env_ratios_stats!G10</f>
         <v>2.2775786486314401E-2</v>
       </c>
       <c r="I58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H10</f>
+        <f>[4]monthly_3f_env_ratios_stats!H10</f>
         <v>2.37323104901382E-2</v>
       </c>
       <c r="J58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I10</f>
+        <f>[4]monthly_3f_env_ratios_stats!I10</f>
         <v>3.3945593069627397E-2</v>
       </c>
       <c r="K58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J10</f>
+        <f>[4]monthly_3f_env_ratios_stats!J10</f>
         <v>2.3180130798994999E-2</v>
       </c>
       <c r="L58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K10</f>
+        <f>[4]monthly_3f_env_ratios_stats!K10</f>
         <v>1.5405605440574999E-2</v>
       </c>
       <c r="M58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L10</f>
+        <f>[4]monthly_3f_env_ratios_stats!L10</f>
         <v>2.0322319415518299E-2</v>
       </c>
       <c r="N58" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M10</f>
+        <f>[4]monthly_3f_env_ratios_stats!M10</f>
         <v>1.9478440326438799E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A11</f>
+        <f>[4]monthly_3f_env_ratios_stats!A11</f>
         <v>CV</v>
       </c>
       <c r="B59" t="str">
-        <f>B58</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!B11</f>
+        <f>[4]monthly_3f_env_ratios_stats!B11</f>
         <v>0.182531205507208</v>
       </c>
       <c r="D59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!C11</f>
+        <f>[4]monthly_3f_env_ratios_stats!C11</f>
         <v>0.15409465798559199</v>
       </c>
       <c r="E59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!D11</f>
+        <f>[4]monthly_3f_env_ratios_stats!D11</f>
         <v>0.19682529090157599</v>
       </c>
       <c r="F59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!E11</f>
+        <f>[4]monthly_3f_env_ratios_stats!E11</f>
         <v>0.15902001372053701</v>
       </c>
       <c r="G59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!F11</f>
+        <f>[4]monthly_3f_env_ratios_stats!F11</f>
         <v>0.17953504089929501</v>
       </c>
       <c r="H59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!G11</f>
+        <f>[4]monthly_3f_env_ratios_stats!G11</f>
         <v>0.19654343697384499</v>
       </c>
       <c r="I59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!H11</f>
+        <f>[4]monthly_3f_env_ratios_stats!H11</f>
         <v>0.127885033197635</v>
       </c>
       <c r="J59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!I11</f>
+        <f>[4]monthly_3f_env_ratios_stats!I11</f>
         <v>0.21934542913029201</v>
       </c>
       <c r="K59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!J11</f>
+        <f>[4]monthly_3f_env_ratios_stats!J11</f>
         <v>0.16982778918081601</v>
       </c>
       <c r="L59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!K11</f>
+        <f>[4]monthly_3f_env_ratios_stats!K11</f>
         <v>0.15085813149236499</v>
       </c>
       <c r="M59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!L11</f>
+        <f>[4]monthly_3f_env_ratios_stats!L11</f>
         <v>0.16923712612830799</v>
       </c>
       <c r="N59" s="3">
-        <f>[6]monthly_3f_env_ratios_stats!M11</f>
+        <f>[4]monthly_3f_env_ratios_stats!M11</f>
         <v>0.14591329379464399</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A12</f>
+        <f>[4]monthly_3f_env_ratios_stats!A12</f>
         <v>Skewness</v>
       </c>
       <c r="B60" t="str">
-        <f>B59</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!B12</f>
+        <f>[4]monthly_3f_env_ratios_stats!B12</f>
         <v>0.52659754935525804</v>
       </c>
       <c r="D60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!C12</f>
+        <f>[4]monthly_3f_env_ratios_stats!C12</f>
         <v>0.64829231395299103</v>
       </c>
       <c r="E60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!D12</f>
+        <f>[4]monthly_3f_env_ratios_stats!D12</f>
         <v>0.89921600415061398</v>
       </c>
       <c r="F60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!E12</f>
+        <f>[4]monthly_3f_env_ratios_stats!E12</f>
         <v>-0.28938623288903598</v>
       </c>
       <c r="G60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!F12</f>
+        <f>[4]monthly_3f_env_ratios_stats!F12</f>
         <v>-0.19948969369629899</v>
       </c>
       <c r="H60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!G12</f>
+        <f>[4]monthly_3f_env_ratios_stats!G12</f>
         <v>0.66459811483869502</v>
       </c>
       <c r="I60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!H12</f>
+        <f>[4]monthly_3f_env_ratios_stats!H12</f>
         <v>0.30426207835975799</v>
       </c>
       <c r="J60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!I12</f>
+        <f>[4]monthly_3f_env_ratios_stats!I12</f>
         <v>0.31751005159726697</v>
       </c>
       <c r="K60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!J12</f>
+        <f>[4]monthly_3f_env_ratios_stats!J12</f>
         <v>0.15444522577031899</v>
       </c>
       <c r="L60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!K12</f>
+        <f>[4]monthly_3f_env_ratios_stats!K12</f>
         <v>0.85794577235994995</v>
       </c>
       <c r="M60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!L12</f>
+        <f>[4]monthly_3f_env_ratios_stats!L12</f>
         <v>9.6309053870288402E-2</v>
       </c>
       <c r="N60" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!M12</f>
+        <f>[4]monthly_3f_env_ratios_stats!M12</f>
         <v>0.43821488903060202</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A13</f>
+        <f>[4]monthly_3f_env_ratios_stats!A13</f>
         <v>SE.Skewness</v>
       </c>
       <c r="B61" t="str">
-        <f>B60</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!B13</f>
+        <f>[4]monthly_3f_env_ratios_stats!B13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="D61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!C13</f>
+        <f>[4]monthly_3f_env_ratios_stats!C13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="E61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!D13</f>
+        <f>[4]monthly_3f_env_ratios_stats!D13</f>
         <v>0.48133666148027998</v>
       </c>
       <c r="F61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!E13</f>
+        <f>[4]monthly_3f_env_ratios_stats!E13</f>
         <v>0.48133666148027998</v>
       </c>
       <c r="G61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!F13</f>
+        <f>[4]monthly_3f_env_ratios_stats!F13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="H61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!G13</f>
+        <f>[4]monthly_3f_env_ratios_stats!G13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="I61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!H13</f>
+        <f>[4]monthly_3f_env_ratios_stats!H13</f>
         <v>0.48133666148027998</v>
       </c>
       <c r="J61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!I13</f>
+        <f>[4]monthly_3f_env_ratios_stats!I13</f>
         <v>0.48133666148027998</v>
       </c>
       <c r="K61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!J13</f>
+        <f>[4]monthly_3f_env_ratios_stats!J13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="L61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!K13</f>
+        <f>[4]monthly_3f_env_ratios_stats!K13</f>
         <v>0.44785201637530703</v>
       </c>
       <c r="M61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!L13</f>
+        <f>[4]monthly_3f_env_ratios_stats!L13</f>
         <v>0.48133666148027998</v>
       </c>
       <c r="N61" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!M13</f>
+        <f>[4]monthly_3f_env_ratios_stats!M13</f>
         <v>0.48133666148027998</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A14</f>
+        <f>[4]monthly_3f_env_ratios_stats!A14</f>
         <v>Kurtosis</v>
       </c>
       <c r="B62" t="str">
-        <f>B61</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!B14</f>
+        <f>[4]monthly_3f_env_ratios_stats!B14</f>
         <v>-0.87420115561351597</v>
       </c>
       <c r="D62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!C14</f>
+        <f>[4]monthly_3f_env_ratios_stats!C14</f>
         <v>0.79197728904682296</v>
       </c>
       <c r="E62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!D14</f>
+        <f>[4]monthly_3f_env_ratios_stats!D14</f>
         <v>-0.15280039174919099</v>
       </c>
       <c r="F62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!E14</f>
+        <f>[4]monthly_3f_env_ratios_stats!E14</f>
         <v>-0.95046257189817096</v>
       </c>
       <c r="G62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!F14</f>
+        <f>[4]monthly_3f_env_ratios_stats!F14</f>
         <v>-0.88324267827793201</v>
       </c>
       <c r="H62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!G14</f>
+        <f>[4]monthly_3f_env_ratios_stats!G14</f>
         <v>-0.27444717204144498</v>
       </c>
       <c r="I62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!H14</f>
+        <f>[4]monthly_3f_env_ratios_stats!H14</f>
         <v>-0.93895922095536699</v>
       </c>
       <c r="J62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!I14</f>
+        <f>[4]monthly_3f_env_ratios_stats!I14</f>
         <v>-1.32677975504614</v>
       </c>
       <c r="K62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!J14</f>
+        <f>[4]monthly_3f_env_ratios_stats!J14</f>
         <v>-0.70452895318182296</v>
       </c>
       <c r="L62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!K14</f>
+        <f>[4]monthly_3f_env_ratios_stats!K14</f>
         <v>-9.4312578903051697E-2</v>
       </c>
       <c r="M62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!L14</f>
+        <f>[4]monthly_3f_env_ratios_stats!L14</f>
         <v>-0.85934371596204095</v>
       </c>
       <c r="N62" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!M14</f>
+        <f>[4]monthly_3f_env_ratios_stats!M14</f>
         <v>-0.77939215508436099</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A15</f>
+        <f>[4]monthly_3f_env_ratios_stats!A15</f>
         <v>N.Valid</v>
       </c>
       <c r="B63" t="str">
-        <f>B62</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!B15</f>
+        <f>[4]monthly_3f_env_ratios_stats!B15</f>
         <v>27</v>
       </c>
       <c r="D63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!C15</f>
+        <f>[4]monthly_3f_env_ratios_stats!C15</f>
         <v>27</v>
       </c>
       <c r="E63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!D15</f>
+        <f>[4]monthly_3f_env_ratios_stats!D15</f>
         <v>23</v>
       </c>
       <c r="F63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!E15</f>
+        <f>[4]monthly_3f_env_ratios_stats!E15</f>
         <v>23</v>
       </c>
       <c r="G63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!F15</f>
+        <f>[4]monthly_3f_env_ratios_stats!F15</f>
         <v>27</v>
       </c>
       <c r="H63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!G15</f>
+        <f>[4]monthly_3f_env_ratios_stats!G15</f>
         <v>27</v>
       </c>
       <c r="I63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!H15</f>
+        <f>[4]monthly_3f_env_ratios_stats!H15</f>
         <v>23</v>
       </c>
       <c r="J63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!I15</f>
+        <f>[4]monthly_3f_env_ratios_stats!I15</f>
         <v>23</v>
       </c>
       <c r="K63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!J15</f>
+        <f>[4]monthly_3f_env_ratios_stats!J15</f>
         <v>27</v>
       </c>
       <c r="L63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!K15</f>
+        <f>[4]monthly_3f_env_ratios_stats!K15</f>
         <v>27</v>
       </c>
       <c r="M63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!L15</f>
+        <f>[4]monthly_3f_env_ratios_stats!L15</f>
         <v>23</v>
       </c>
       <c r="N63" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!M15</f>
+        <f>[4]monthly_3f_env_ratios_stats!M15</f>
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>[6]monthly_3f_env_ratios_stats!A16</f>
+        <f>[4]monthly_3f_env_ratios_stats!A16</f>
         <v>Pct.Valid</v>
       </c>
       <c r="B64" t="str">
-        <f>B63</f>
+        <f t="shared" si="3"/>
         <v>monthly_3f_env_ratios_stats</v>
       </c>
       <c r="C64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!B16</f>
+        <f>[4]monthly_3f_env_ratios_stats!B16</f>
         <v>100</v>
       </c>
       <c r="D64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!C16</f>
+        <f>[4]monthly_3f_env_ratios_stats!C16</f>
         <v>100</v>
       </c>
       <c r="E64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!D16</f>
+        <f>[4]monthly_3f_env_ratios_stats!D16</f>
         <v>100</v>
       </c>
       <c r="F64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!E16</f>
+        <f>[4]monthly_3f_env_ratios_stats!E16</f>
         <v>100</v>
       </c>
       <c r="G64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!F16</f>
+        <f>[4]monthly_3f_env_ratios_stats!F16</f>
         <v>100</v>
       </c>
       <c r="H64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!G16</f>
+        <f>[4]monthly_3f_env_ratios_stats!G16</f>
         <v>100</v>
       </c>
       <c r="I64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!H16</f>
+        <f>[4]monthly_3f_env_ratios_stats!H16</f>
         <v>100</v>
       </c>
       <c r="J64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!I16</f>
+        <f>[4]monthly_3f_env_ratios_stats!I16</f>
         <v>100</v>
       </c>
       <c r="K64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!J16</f>
+        <f>[4]monthly_3f_env_ratios_stats!J16</f>
         <v>100</v>
       </c>
       <c r="L64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!K16</f>
+        <f>[4]monthly_3f_env_ratios_stats!K16</f>
         <v>100</v>
       </c>
       <c r="M64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!L16</f>
+        <f>[4]monthly_3f_env_ratios_stats!L16</f>
         <v>100</v>
       </c>
       <c r="N64" s="12">
-        <f>[6]monthly_3f_env_ratios_stats!M16</f>
+        <f>[4]monthly_3f_env_ratios_stats!M16</f>
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A2</f>
         <v>Mean</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B2</f>
         <v>0.111990743554658</v>
       </c>
       <c r="D66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C2</f>
         <v>8.1573566686531401E-2</v>
       </c>
       <c r="E66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D2</f>
         <v>0.118744492580641</v>
       </c>
       <c r="F66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E2</f>
         <v>8.5725276344395501E-2</v>
       </c>
       <c r="G66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F2</f>
         <v>0.10709494229666799</v>
       </c>
       <c r="H66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G2</f>
         <v>8.6024049528840602E-2</v>
       </c>
       <c r="I66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H2</f>
         <v>0.10008413880505899</v>
       </c>
       <c r="J66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I2</f>
         <v>7.9378149617804497E-2</v>
       </c>
       <c r="K66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J2</f>
         <v>7.6183457718643599E-2</v>
       </c>
       <c r="L66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K2</f>
         <v>7.8892168357348302E-2</v>
       </c>
       <c r="M66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L2</f>
         <v>7.8651066310075193E-2</v>
       </c>
       <c r="N66" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M2</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M2</f>
         <v>8.1406234768099994E-2</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A3</f>
         <v>Std.Dev</v>
       </c>
       <c r="B67" t="str">
@@ -9228,1674 +9228,1674 @@
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B3</f>
         <v>3.1964476572623801E-2</v>
       </c>
       <c r="D67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C3</f>
         <v>1.9182099778362601E-2</v>
       </c>
       <c r="E67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D3</f>
         <v>3.6912086943246498E-2</v>
       </c>
       <c r="F67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E3</f>
         <v>2.9055668093139201E-2</v>
       </c>
       <c r="G67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F3</f>
         <v>2.29514481440844E-2</v>
       </c>
       <c r="H67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G3</f>
         <v>1.8062783244391398E-2</v>
       </c>
       <c r="I67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H3</f>
         <v>2.2292301208599902E-2</v>
       </c>
       <c r="J67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I3</f>
         <v>1.6676582298545E-2</v>
       </c>
       <c r="K67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J3</f>
         <v>1.8400691057877901E-2</v>
       </c>
       <c r="L67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K3</f>
         <v>1.4241648394487501E-2</v>
       </c>
       <c r="M67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L3</f>
         <v>1.7314655971917201E-2</v>
       </c>
       <c r="N67" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M3</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M3</f>
         <v>2.49841977407185E-2</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A4</f>
         <v>Min</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B80" si="3">B67</f>
+        <f t="shared" ref="B68:B80" si="4">B67</f>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B4</f>
         <v>5.2550869528202801E-2</v>
       </c>
       <c r="D68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C4</f>
         <v>3.0260428517019902E-2</v>
       </c>
       <c r="E68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D4</f>
         <v>5.49858337587701E-2</v>
       </c>
       <c r="F68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E4</f>
         <v>3.4860350152696999E-2</v>
       </c>
       <c r="G68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F4</f>
         <v>5.5634187919242802E-2</v>
       </c>
       <c r="H68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G4</f>
         <v>3.8474379393633899E-2</v>
       </c>
       <c r="I68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H4</f>
         <v>5.8180982861259903E-2</v>
       </c>
       <c r="J68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I4</f>
         <v>3.7483440181491398E-2</v>
       </c>
       <c r="K68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J4</f>
         <v>4.3532585873153201E-2</v>
       </c>
       <c r="L68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K4</f>
         <v>4.7462118811732699E-2</v>
       </c>
       <c r="M68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L4</f>
         <v>4.6080922412435797E-2</v>
       </c>
       <c r="N68" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M4</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M4</f>
         <v>3.9739143165336298E-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A5</f>
         <v>Q1</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B5</f>
         <v>9.0987705409309602E-2</v>
       </c>
       <c r="D69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C5</f>
         <v>6.6877632535464804E-2</v>
       </c>
       <c r="E69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D5</f>
         <v>9.0975591638039199E-2</v>
       </c>
       <c r="F69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E5</f>
         <v>5.6747842806805698E-2</v>
       </c>
       <c r="G69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F5</f>
         <v>9.1751141618084106E-2</v>
       </c>
       <c r="H69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G5</f>
         <v>7.4045552109663307E-2</v>
       </c>
       <c r="I69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H5</f>
         <v>8.3321853784996694E-2</v>
       </c>
       <c r="J69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I5</f>
         <v>6.7627917313514502E-2</v>
       </c>
       <c r="K69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J5</f>
         <v>5.9375604507551E-2</v>
       </c>
       <c r="L69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K5</f>
         <v>6.8943217040645002E-2</v>
       </c>
       <c r="M69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L5</f>
         <v>6.2857709727738603E-2</v>
       </c>
       <c r="N69" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M5</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M5</f>
         <v>5.3970377107807797E-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A6</f>
         <v>Median</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B6</f>
         <v>0.11349441463690001</v>
       </c>
       <c r="D70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C6</f>
         <v>7.9227783861447895E-2</v>
       </c>
       <c r="E70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D6</f>
         <v>0.11767755921550301</v>
       </c>
       <c r="F70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E6</f>
         <v>8.2437478687370697E-2</v>
       </c>
       <c r="G70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F6</f>
         <v>0.11181266334732</v>
       </c>
       <c r="H70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G6</f>
         <v>8.8548155614997903E-2</v>
       </c>
       <c r="I70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H6</f>
         <v>0.10221666101586099</v>
       </c>
       <c r="J70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I6</f>
         <v>8.2083168461088998E-2</v>
       </c>
       <c r="K70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J6</f>
         <v>7.8313632837254704E-2</v>
       </c>
       <c r="L70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K6</f>
         <v>7.9434354339565305E-2</v>
       </c>
       <c r="M70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L6</f>
         <v>7.7443441153153506E-2</v>
       </c>
       <c r="N70" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M6</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M6</f>
         <v>8.8131239925999902E-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A7</f>
         <v>Q3</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B7</f>
         <v>0.13337755809947099</v>
       </c>
       <c r="D71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C7</f>
         <v>9.7442900065419294E-2</v>
       </c>
       <c r="E71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D7</f>
         <v>0.140683149338764</v>
       </c>
       <c r="F71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E7</f>
         <v>0.10548854047812201</v>
       </c>
       <c r="G71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F7</f>
         <v>0.121173638645331</v>
       </c>
       <c r="H71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G7</f>
         <v>9.90410424651781E-2</v>
       </c>
       <c r="I71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H7</f>
         <v>0.113239098694562</v>
       </c>
       <c r="J71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I7</f>
         <v>9.1583500950753099E-2</v>
       </c>
       <c r="K71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J7</f>
         <v>8.9453449373618099E-2</v>
       </c>
       <c r="L71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K7</f>
         <v>8.7312168212882693E-2</v>
       </c>
       <c r="M71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L7</f>
         <v>9.4454203028153799E-2</v>
       </c>
       <c r="N71" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M7</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M7</f>
         <v>0.101823798747209</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A8</f>
         <v>Max</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B8</f>
         <v>0.17313935009082401</v>
       </c>
       <c r="D72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C8</f>
         <v>0.122533181558713</v>
       </c>
       <c r="E72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D8</f>
         <v>0.20273228143849301</v>
       </c>
       <c r="F72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E8</f>
         <v>0.148146013377674</v>
       </c>
       <c r="G72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F8</f>
         <v>0.155185358711665</v>
       </c>
       <c r="H72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G8</f>
         <v>0.117311915814917</v>
       </c>
       <c r="I72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H8</f>
         <v>0.148205663747767</v>
       </c>
       <c r="J72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I8</f>
         <v>0.11116659503262399</v>
       </c>
       <c r="K72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J8</f>
         <v>0.121590153106499</v>
       </c>
       <c r="L72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K8</f>
         <v>0.110839862779646</v>
       </c>
       <c r="M72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L8</f>
         <v>0.113916569200288</v>
       </c>
       <c r="N72" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M8</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M8</f>
         <v>0.122188567423882</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A9</f>
         <v>MAD</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B9</f>
         <v>3.1011619518947701E-2</v>
       </c>
       <c r="D73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C9</f>
         <v>2.0818676472495402E-2</v>
       </c>
       <c r="E73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D9</f>
         <v>3.7550644487995298E-2</v>
       </c>
       <c r="F73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E9</f>
         <v>3.4175504210968002E-2</v>
       </c>
       <c r="G73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F9</f>
         <v>2.0263532890124499E-2</v>
       </c>
       <c r="H73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G9</f>
         <v>1.6864882022195899E-2</v>
       </c>
       <c r="I73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H9</f>
         <v>2.39943166574802E-2</v>
       </c>
       <c r="J73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I9</f>
         <v>1.5698895108715201E-2</v>
       </c>
       <c r="K73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J9</f>
         <v>2.1649175416720699E-2</v>
       </c>
       <c r="L73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K9</f>
         <v>1.3989279625497E-2</v>
       </c>
       <c r="M73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L9</f>
         <v>2.3296352747876399E-2</v>
       </c>
       <c r="N73" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M9</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M9</f>
         <v>3.0214934319676898E-2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A10</f>
         <v>IQR</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B10</f>
         <v>4.0651707612885599E-2</v>
       </c>
       <c r="D74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C10</f>
         <v>2.9826955348955801E-2</v>
       </c>
       <c r="E74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D10</f>
         <v>4.89868340912262E-2</v>
       </c>
       <c r="F74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E10</f>
         <v>4.5881552409790603E-2</v>
       </c>
       <c r="G74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F10</f>
         <v>2.8539938180305199E-2</v>
       </c>
       <c r="H74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G10</f>
         <v>2.4201807260720101E-2</v>
       </c>
       <c r="I74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H10</f>
         <v>2.9592131058942699E-2</v>
       </c>
       <c r="J74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I10</f>
         <v>2.35809688841544E-2</v>
       </c>
       <c r="K74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J10</f>
         <v>2.9640811571215699E-2</v>
       </c>
       <c r="L74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K10</f>
         <v>1.80089422988099E-2</v>
       </c>
       <c r="M74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L10</f>
         <v>3.0706130378166E-2</v>
       </c>
       <c r="N74" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M10</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M10</f>
         <v>4.5755441605659898E-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A11</f>
         <v>CV</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!B11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B11</f>
         <v>0.28542070137272901</v>
       </c>
       <c r="D75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!C11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C11</f>
         <v>0.23515092642785801</v>
       </c>
       <c r="E75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!D11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D11</f>
         <v>0.31085304371635702</v>
       </c>
       <c r="F75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!E11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E11</f>
         <v>0.33893933425667899</v>
       </c>
       <c r="G75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!F11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F11</f>
         <v>0.21430935627665501</v>
       </c>
       <c r="H75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!G11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G11</f>
         <v>0.20997364508323499</v>
       </c>
       <c r="I75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!H11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H11</f>
         <v>0.22273560500950301</v>
       </c>
       <c r="J75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!I11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I11</f>
         <v>0.210090338195594</v>
       </c>
       <c r="K75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!J11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J11</f>
         <v>0.241531319382145</v>
       </c>
       <c r="L75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!K11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K11</f>
         <v>0.180520433029282</v>
       </c>
       <c r="M75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!L11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L11</f>
         <v>0.22014521587864599</v>
       </c>
       <c r="N75" s="3">
-        <f>[4]daily_6f_ghg_ratios_stats!M11</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M11</f>
         <v>0.30690766882770598</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A12</f>
         <v>Skewness</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!B12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B12</f>
         <v>-6.3112666575605603E-2</v>
       </c>
       <c r="D76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!C12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C12</f>
         <v>-1.8973559544133298E-2</v>
       </c>
       <c r="E76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!D12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D12</f>
         <v>0.33165125157495801</v>
       </c>
       <c r="F76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!E12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E12</f>
         <v>0.26953596584113898</v>
       </c>
       <c r="G76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!F12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F12</f>
         <v>-0.49240921314503899</v>
       </c>
       <c r="H76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!G12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G12</f>
         <v>-0.600626770937848</v>
       </c>
       <c r="I76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!H12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H12</f>
         <v>0.116004587578748</v>
       </c>
       <c r="J76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!I12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I12</f>
         <v>-0.41184128275821802</v>
       </c>
       <c r="K76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!J12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J12</f>
         <v>0.26867010970539401</v>
       </c>
       <c r="L76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!K12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K12</f>
         <v>4.6188722258234102E-2</v>
       </c>
       <c r="M76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!L12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L12</f>
         <v>-1.37176896110691E-2</v>
       </c>
       <c r="N76" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!M12</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M12</f>
         <v>-0.19400109665909299</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A13</f>
         <v>SE.Skewness</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!B13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="D77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!C13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="E77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!D13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="F77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!E13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="G77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!F13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="H77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!G13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="I77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!H13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="J77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!I13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="K77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!J13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="L77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!K13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="M77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!L13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="N77" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!M13</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M13</f>
         <v>0.29283625195482998</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A14</f>
         <v>Kurtosis</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!B14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B14</f>
         <v>-0.80352218803665199</v>
       </c>
       <c r="D78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!C14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C14</f>
         <v>-0.63701195472633398</v>
       </c>
       <c r="E78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!D14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D14</f>
         <v>-0.60440985996519603</v>
       </c>
       <c r="F78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!E14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E14</f>
         <v>-0.91699231507274603</v>
       </c>
       <c r="G78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!F14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F14</f>
         <v>-0.49176907770992401</v>
       </c>
       <c r="H78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!G14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G14</f>
         <v>-0.26040607612413402</v>
       </c>
       <c r="I78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!H14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H14</f>
         <v>-0.61258981080719499</v>
       </c>
       <c r="J78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!I14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I14</f>
         <v>-0.22870162473469899</v>
       </c>
       <c r="K78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!J14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J14</f>
         <v>-0.62831596977246196</v>
       </c>
       <c r="L78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!K14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K14</f>
         <v>-0.61575760179222705</v>
       </c>
       <c r="M78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!L14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L14</f>
         <v>-1.2248719538509101</v>
       </c>
       <c r="N78" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!M14</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M14</f>
         <v>-1.39834675763853</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A15</f>
         <v>N.Valid</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!B15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B15</f>
         <v>79</v>
       </c>
       <c r="D79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!C15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C15</f>
         <v>79</v>
       </c>
       <c r="E79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!D15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D15</f>
         <v>67</v>
       </c>
       <c r="F79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!E15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E15</f>
         <v>67</v>
       </c>
       <c r="G79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!F15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F15</f>
         <v>79</v>
       </c>
       <c r="H79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!G15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G15</f>
         <v>79</v>
       </c>
       <c r="I79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!H15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H15</f>
         <v>67</v>
       </c>
       <c r="J79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!I15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I15</f>
         <v>67</v>
       </c>
       <c r="K79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!J15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J15</f>
         <v>79</v>
       </c>
       <c r="L79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!K15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K15</f>
         <v>79</v>
       </c>
       <c r="M79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!L15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L15</f>
         <v>67</v>
       </c>
       <c r="N79" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!M15</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M15</f>
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>[4]daily_6f_ghg_ratios_stats!A16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!A16</f>
         <v>Pct.Valid</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>daily_6f_ghg_ratios_stats</v>
       </c>
       <c r="C80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!B16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!B16</f>
         <v>100</v>
       </c>
       <c r="D80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!C16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!C16</f>
         <v>100</v>
       </c>
       <c r="E80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!D16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!D16</f>
         <v>100</v>
       </c>
       <c r="F80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!E16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!E16</f>
         <v>100</v>
       </c>
       <c r="G80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!F16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!F16</f>
         <v>100</v>
       </c>
       <c r="H80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!G16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!G16</f>
         <v>100</v>
       </c>
       <c r="I80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!H16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!H16</f>
         <v>100</v>
       </c>
       <c r="J80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!I16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!I16</f>
         <v>100</v>
       </c>
       <c r="K80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!J16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!J16</f>
         <v>100</v>
       </c>
       <c r="L80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!K16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!K16</f>
         <v>100</v>
       </c>
       <c r="M80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!L16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!L16</f>
         <v>100</v>
       </c>
       <c r="N80" s="12">
-        <f>[4]daily_6f_ghg_ratios_stats!M16</f>
+        <f>[5]daily_6f_ghg_ratios_stats!M16</f>
         <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A2</f>
+        <f>[6]daily_6f_env_ratios_stats!A2</f>
         <v>Mean</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B2</f>
+        <f>[6]daily_6f_env_ratios_stats!B2</f>
         <v>8.68567741266838E-2</v>
       </c>
       <c r="D82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C2</f>
+        <f>[6]daily_6f_env_ratios_stats!C2</f>
         <v>7.0435855056790495E-2</v>
       </c>
       <c r="E82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D2</f>
+        <f>[6]daily_6f_env_ratios_stats!D2</f>
         <v>8.3550498267471698E-2</v>
       </c>
       <c r="F82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E2</f>
+        <f>[6]daily_6f_env_ratios_stats!E2</f>
         <v>8.01983634969268E-2</v>
       </c>
       <c r="G82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F2</f>
+        <f>[6]daily_6f_env_ratios_stats!F2</f>
         <v>7.74609406152372E-2</v>
       </c>
       <c r="H82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G2</f>
+        <f>[6]daily_6f_env_ratios_stats!G2</f>
         <v>8.0586960959817905E-2</v>
       </c>
       <c r="I82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H2</f>
+        <f>[6]daily_6f_env_ratios_stats!H2</f>
         <v>9.8299395834364797E-2</v>
       </c>
       <c r="J82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I2</f>
+        <f>[6]daily_6f_env_ratios_stats!I2</f>
         <v>8.9970542026014594E-2</v>
       </c>
       <c r="K82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J2</f>
+        <f>[6]daily_6f_env_ratios_stats!J2</f>
         <v>8.2528623475740304E-2</v>
       </c>
       <c r="L82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K2</f>
+        <f>[6]daily_6f_env_ratios_stats!K2</f>
         <v>7.6142355425238201E-2</v>
       </c>
       <c r="M82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L2</f>
+        <f>[6]daily_6f_env_ratios_stats!L2</f>
         <v>8.8854751143623401E-2</v>
       </c>
       <c r="N82" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M2</f>
+        <f>[6]daily_6f_env_ratios_stats!M2</f>
         <v>7.1890526423175505E-2</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A3</f>
+        <f>[6]daily_6f_env_ratios_stats!A3</f>
         <v>Std.Dev</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B96" si="4">B82</f>
+        <f t="shared" ref="B83:B96" si="5">B82</f>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B3</f>
+        <f>[6]daily_6f_env_ratios_stats!B3</f>
         <v>1.47609901701963E-2</v>
       </c>
       <c r="D83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C3</f>
+        <f>[6]daily_6f_env_ratios_stats!C3</f>
         <v>9.8725208090142298E-3</v>
       </c>
       <c r="E83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D3</f>
+        <f>[6]daily_6f_env_ratios_stats!D3</f>
         <v>1.81423842408781E-2</v>
       </c>
       <c r="F83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E3</f>
+        <f>[6]daily_6f_env_ratios_stats!E3</f>
         <v>1.40513338853238E-2</v>
       </c>
       <c r="G83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F3</f>
+        <f>[6]daily_6f_env_ratios_stats!F3</f>
         <v>1.02260036387477E-2</v>
       </c>
       <c r="H83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G3</f>
+        <f>[6]daily_6f_env_ratios_stats!G3</f>
         <v>1.35862909618173E-2</v>
       </c>
       <c r="I83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H3</f>
+        <f>[6]daily_6f_env_ratios_stats!H3</f>
         <v>1.9985245398797501E-2</v>
       </c>
       <c r="J83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I3</f>
+        <f>[6]daily_6f_env_ratios_stats!I3</f>
         <v>1.4462693548673199E-2</v>
       </c>
       <c r="K83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J3</f>
+        <f>[6]daily_6f_env_ratios_stats!J3</f>
         <v>1.41698339015992E-2</v>
       </c>
       <c r="L83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K3</f>
+        <f>[6]daily_6f_env_ratios_stats!K3</f>
         <v>1.33953167893862E-2</v>
       </c>
       <c r="M83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L3</f>
+        <f>[6]daily_6f_env_ratios_stats!L3</f>
         <v>1.60812804692998E-2</v>
       </c>
       <c r="N83" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M3</f>
+        <f>[6]daily_6f_env_ratios_stats!M3</f>
         <v>1.2435118195819999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A4</f>
+        <f>[6]daily_6f_env_ratios_stats!A4</f>
         <v>Min</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B4</f>
+        <f>[6]daily_6f_env_ratios_stats!B4</f>
         <v>6.4132985118942998E-2</v>
       </c>
       <c r="D84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C4</f>
+        <f>[6]daily_6f_env_ratios_stats!C4</f>
         <v>4.4265011537557498E-2</v>
       </c>
       <c r="E84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D4</f>
+        <f>[6]daily_6f_env_ratios_stats!D4</f>
         <v>5.53428950781635E-2</v>
       </c>
       <c r="F84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E4</f>
+        <f>[6]daily_6f_env_ratios_stats!E4</f>
         <v>4.7938705732983401E-2</v>
       </c>
       <c r="G84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F4</f>
+        <f>[6]daily_6f_env_ratios_stats!F4</f>
         <v>5.7005801494430602E-2</v>
       </c>
       <c r="H84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G4</f>
+        <f>[6]daily_6f_env_ratios_stats!G4</f>
         <v>4.8566265999887198E-2</v>
       </c>
       <c r="I84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H4</f>
+        <f>[6]daily_6f_env_ratios_stats!H4</f>
         <v>6.3911589416079204E-2</v>
       </c>
       <c r="J84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I4</f>
+        <f>[6]daily_6f_env_ratios_stats!I4</f>
         <v>6.1944745434824297E-2</v>
       </c>
       <c r="K84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J4</f>
+        <f>[6]daily_6f_env_ratios_stats!J4</f>
         <v>5.35161786900889E-2</v>
       </c>
       <c r="L84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K4</f>
+        <f>[6]daily_6f_env_ratios_stats!K4</f>
         <v>5.3234145564586201E-2</v>
       </c>
       <c r="M84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L4</f>
+        <f>[6]daily_6f_env_ratios_stats!L4</f>
         <v>5.5830037191812197E-2</v>
       </c>
       <c r="N84" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M4</f>
+        <f>[6]daily_6f_env_ratios_stats!M4</f>
         <v>4.4917820511692401E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A5</f>
+        <f>[6]daily_6f_env_ratios_stats!A5</f>
         <v>Q1</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B5</f>
+        <f>[6]daily_6f_env_ratios_stats!B5</f>
         <v>7.4178878614598404E-2</v>
       </c>
       <c r="D85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C5</f>
+        <f>[6]daily_6f_env_ratios_stats!C5</f>
         <v>6.4267170347588207E-2</v>
       </c>
       <c r="E85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D5</f>
+        <f>[6]daily_6f_env_ratios_stats!D5</f>
         <v>7.1166124985010196E-2</v>
       </c>
       <c r="F85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E5</f>
+        <f>[6]daily_6f_env_ratios_stats!E5</f>
         <v>6.8421671372624004E-2</v>
       </c>
       <c r="G85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F5</f>
+        <f>[6]daily_6f_env_ratios_stats!F5</f>
         <v>6.8587527602738604E-2</v>
       </c>
       <c r="H85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G5</f>
+        <f>[6]daily_6f_env_ratios_stats!G5</f>
         <v>7.11624665258829E-2</v>
       </c>
       <c r="I85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H5</f>
+        <f>[6]daily_6f_env_ratios_stats!H5</f>
         <v>7.8249058000624802E-2</v>
       </c>
       <c r="J85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I5</f>
+        <f>[6]daily_6f_env_ratios_stats!I5</f>
         <v>7.98445260929566E-2</v>
       </c>
       <c r="K85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J5</f>
+        <f>[6]daily_6f_env_ratios_stats!J5</f>
         <v>7.2048989835612504E-2</v>
       </c>
       <c r="L85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K5</f>
+        <f>[6]daily_6f_env_ratios_stats!K5</f>
         <v>6.4619384646746006E-2</v>
       </c>
       <c r="M85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L5</f>
+        <f>[6]daily_6f_env_ratios_stats!L5</f>
         <v>7.5291667905133003E-2</v>
       </c>
       <c r="N85" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M5</f>
+        <f>[6]daily_6f_env_ratios_stats!M5</f>
         <v>6.20959549669894E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A6</f>
+        <f>[6]daily_6f_env_ratios_stats!A6</f>
         <v>Median</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B6</f>
+        <f>[6]daily_6f_env_ratios_stats!B6</f>
         <v>8.5614372612199396E-2</v>
       </c>
       <c r="D86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C6</f>
+        <f>[6]daily_6f_env_ratios_stats!C6</f>
         <v>6.9876006976892099E-2</v>
       </c>
       <c r="E86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D6</f>
+        <f>[6]daily_6f_env_ratios_stats!D6</f>
         <v>7.8351127556125194E-2</v>
       </c>
       <c r="F86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E6</f>
+        <f>[6]daily_6f_env_ratios_stats!E6</f>
         <v>8.2185569863925501E-2</v>
       </c>
       <c r="G86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F6</f>
+        <f>[6]daily_6f_env_ratios_stats!F6</f>
         <v>7.7747169192943694E-2</v>
       </c>
       <c r="H86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G6</f>
+        <f>[6]daily_6f_env_ratios_stats!G6</f>
         <v>7.9787349157748197E-2</v>
       </c>
       <c r="I86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H6</f>
+        <f>[6]daily_6f_env_ratios_stats!H6</f>
         <v>9.7900720452914994E-2</v>
       </c>
       <c r="J86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I6</f>
+        <f>[6]daily_6f_env_ratios_stats!I6</f>
         <v>8.9943345392432802E-2</v>
       </c>
       <c r="K86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J6</f>
+        <f>[6]daily_6f_env_ratios_stats!J6</f>
         <v>8.1605274910361403E-2</v>
       </c>
       <c r="L86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K6</f>
+        <f>[6]daily_6f_env_ratios_stats!K6</f>
         <v>7.5325045853452705E-2</v>
       </c>
       <c r="M86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L6</f>
+        <f>[6]daily_6f_env_ratios_stats!L6</f>
         <v>8.6680250416273003E-2</v>
       </c>
       <c r="N86" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M6</f>
+        <f>[6]daily_6f_env_ratios_stats!M6</f>
         <v>7.1081645976350694E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A7</f>
+        <f>[6]daily_6f_env_ratios_stats!A7</f>
         <v>Q3</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B7</f>
+        <f>[6]daily_6f_env_ratios_stats!B7</f>
         <v>9.9427566796513003E-2</v>
       </c>
       <c r="D87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C7</f>
+        <f>[6]daily_6f_env_ratios_stats!C7</f>
         <v>7.7179286877347E-2</v>
       </c>
       <c r="E87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D7</f>
+        <f>[6]daily_6f_env_ratios_stats!D7</f>
         <v>9.2624128091403093E-2</v>
       </c>
       <c r="F87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E7</f>
+        <f>[6]daily_6f_env_ratios_stats!E7</f>
         <v>9.1747939310883903E-2</v>
       </c>
       <c r="G87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F7</f>
+        <f>[6]daily_6f_env_ratios_stats!F7</f>
         <v>8.4741945033426594E-2</v>
       </c>
       <c r="H87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G7</f>
+        <f>[6]daily_6f_env_ratios_stats!G7</f>
         <v>8.9668262222516795E-2</v>
       </c>
       <c r="I87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H7</f>
+        <f>[6]daily_6f_env_ratios_stats!H7</f>
         <v>0.11371877750484199</v>
       </c>
       <c r="J87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I7</f>
+        <f>[6]daily_6f_env_ratios_stats!I7</f>
         <v>9.9548636290157796E-2</v>
       </c>
       <c r="K87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J7</f>
+        <f>[6]daily_6f_env_ratios_stats!J7</f>
         <v>9.3233431442747497E-2</v>
       </c>
       <c r="L87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K7</f>
+        <f>[6]daily_6f_env_ratios_stats!K7</f>
         <v>8.6522859818336503E-2</v>
       </c>
       <c r="M87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L7</f>
+        <f>[6]daily_6f_env_ratios_stats!L7</f>
         <v>0.101484228846577</v>
       </c>
       <c r="N87" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M7</f>
+        <f>[6]daily_6f_env_ratios_stats!M7</f>
         <v>8.2351046499276201E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A8</f>
+        <f>[6]daily_6f_env_ratios_stats!A8</f>
         <v>Max</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B8</f>
+        <f>[6]daily_6f_env_ratios_stats!B8</f>
         <v>0.132985882560266</v>
       </c>
       <c r="D88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C8</f>
+        <f>[6]daily_6f_env_ratios_stats!C8</f>
         <v>9.5676110633072506E-2</v>
       </c>
       <c r="E88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D8</f>
+        <f>[6]daily_6f_env_ratios_stats!D8</f>
         <v>0.136858970210953</v>
       </c>
       <c r="F88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E8</f>
+        <f>[6]daily_6f_env_ratios_stats!E8</f>
         <v>0.112552942005598</v>
       </c>
       <c r="G88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F8</f>
+        <f>[6]daily_6f_env_ratios_stats!F8</f>
         <v>0.101267730273818</v>
       </c>
       <c r="H88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G8</f>
+        <f>[6]daily_6f_env_ratios_stats!G8</f>
         <v>0.118379208519842</v>
       </c>
       <c r="I88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H8</f>
+        <f>[6]daily_6f_env_ratios_stats!H8</f>
         <v>0.14799472503566599</v>
       </c>
       <c r="J88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I8</f>
+        <f>[6]daily_6f_env_ratios_stats!I8</f>
         <v>0.11727497638933</v>
       </c>
       <c r="K88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J8</f>
+        <f>[6]daily_6f_env_ratios_stats!J8</f>
         <v>0.109563227629527</v>
       </c>
       <c r="L88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K8</f>
+        <f>[6]daily_6f_env_ratios_stats!K8</f>
         <v>0.10637113451208199</v>
       </c>
       <c r="M88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L8</f>
+        <f>[6]daily_6f_env_ratios_stats!L8</f>
         <v>0.12325312715327701</v>
       </c>
       <c r="N88" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M8</f>
+        <f>[6]daily_6f_env_ratios_stats!M8</f>
         <v>0.10062150399876001</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A9</f>
+        <f>[6]daily_6f_env_ratios_stats!A9</f>
         <v>MAD</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B9</f>
+        <f>[6]daily_6f_env_ratios_stats!B9</f>
         <v>1.69542634008432E-2</v>
       </c>
       <c r="D89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C9</f>
+        <f>[6]daily_6f_env_ratios_stats!C9</f>
         <v>8.5800549510193901E-3</v>
       </c>
       <c r="E89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D9</f>
+        <f>[6]daily_6f_env_ratios_stats!D9</f>
         <v>1.5450016362780299E-2</v>
       </c>
       <c r="F89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E9</f>
+        <f>[6]daily_6f_env_ratios_stats!E9</f>
         <v>1.7076730206708399E-2</v>
       </c>
       <c r="G89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F9</f>
+        <f>[6]daily_6f_env_ratios_stats!F9</f>
         <v>1.24767041022396E-2</v>
       </c>
       <c r="H89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G9</f>
+        <f>[6]daily_6f_env_ratios_stats!G9</f>
         <v>1.2787250990003499E-2</v>
       </c>
       <c r="I89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H9</f>
+        <f>[6]daily_6f_env_ratios_stats!H9</f>
         <v>2.4387028725670501E-2</v>
       </c>
       <c r="J89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I9</f>
+        <f>[6]daily_6f_env_ratios_stats!I9</f>
         <v>1.4967468416413599E-2</v>
       </c>
       <c r="K89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J9</f>
+        <f>[6]daily_6f_env_ratios_stats!J9</f>
         <v>1.58876405328265E-2</v>
       </c>
       <c r="L89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K9</f>
+        <f>[6]daily_6f_env_ratios_stats!K9</f>
         <v>1.5872213305063301E-2</v>
       </c>
       <c r="M89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L9</f>
+        <f>[6]daily_6f_env_ratios_stats!L9</f>
         <v>1.91330078670401E-2</v>
       </c>
       <c r="N89" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M9</f>
+        <f>[6]daily_6f_env_ratios_stats!M9</f>
         <v>1.3488153963403899E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A10</f>
+        <f>[6]daily_6f_env_ratios_stats!A10</f>
         <v>IQR</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B10</f>
+        <f>[6]daily_6f_env_ratios_stats!B10</f>
         <v>2.27533399189465E-2</v>
       </c>
       <c r="D90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C10</f>
+        <f>[6]daily_6f_env_ratios_stats!C10</f>
         <v>1.21178790705961E-2</v>
       </c>
       <c r="E90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D10</f>
+        <f>[6]daily_6f_env_ratios_stats!D10</f>
         <v>2.02659711702423E-2</v>
       </c>
       <c r="F90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E10</f>
+        <f>[6]daily_6f_env_ratios_stats!E10</f>
         <v>2.2758642383038302E-2</v>
       </c>
       <c r="G90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F10</f>
+        <f>[6]daily_6f_env_ratios_stats!F10</f>
         <v>1.5866084515405301E-2</v>
       </c>
       <c r="H90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G10</f>
+        <f>[6]daily_6f_env_ratios_stats!G10</f>
         <v>1.6935057820127698E-2</v>
       </c>
       <c r="I90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H10</f>
+        <f>[6]daily_6f_env_ratios_stats!H10</f>
         <v>3.3500681731363099E-2</v>
       </c>
       <c r="J90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I10</f>
+        <f>[6]daily_6f_env_ratios_stats!I10</f>
         <v>1.8703856832410298E-2</v>
       </c>
       <c r="K90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J10</f>
+        <f>[6]daily_6f_env_ratios_stats!J10</f>
         <v>2.0342698279507299E-2</v>
       </c>
       <c r="L90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K10</f>
+        <f>[6]daily_6f_env_ratios_stats!K10</f>
         <v>2.1310612103210998E-2</v>
       </c>
       <c r="M90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L10</f>
+        <f>[6]daily_6f_env_ratios_stats!L10</f>
         <v>2.60428089186855E-2</v>
       </c>
       <c r="N90" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M10</f>
+        <f>[6]daily_6f_env_ratios_stats!M10</f>
         <v>1.95607392066071E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A11</f>
+        <f>[6]daily_6f_env_ratios_stats!A11</f>
         <v>CV</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!B11</f>
+        <f>[6]daily_6f_env_ratios_stats!B11</f>
         <v>0.16994633197713299</v>
       </c>
       <c r="D91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!C11</f>
+        <f>[6]daily_6f_env_ratios_stats!C11</f>
         <v>0.14016328475112999</v>
       </c>
       <c r="E91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!D11</f>
+        <f>[6]daily_6f_env_ratios_stats!D11</f>
         <v>0.21714274142086601</v>
       </c>
       <c r="F91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!E11</f>
+        <f>[6]daily_6f_env_ratios_stats!E11</f>
         <v>0.175207239557478</v>
       </c>
       <c r="G91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!F11</f>
+        <f>[6]daily_6f_env_ratios_stats!F11</f>
         <v>0.13201496854449701</v>
       </c>
       <c r="H91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!G11</f>
+        <f>[6]daily_6f_env_ratios_stats!G11</f>
         <v>0.16859167785954399</v>
       </c>
       <c r="I91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!H11</f>
+        <f>[6]daily_6f_env_ratios_stats!H11</f>
         <v>0.20330995149220199</v>
       </c>
       <c r="J91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!I11</f>
+        <f>[6]daily_6f_env_ratios_stats!I11</f>
         <v>0.16074920994130901</v>
       </c>
       <c r="K91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!J11</f>
+        <f>[6]daily_6f_env_ratios_stats!J11</f>
         <v>0.17169599230943799</v>
       </c>
       <c r="L91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!K11</f>
+        <f>[6]daily_6f_env_ratios_stats!K11</f>
         <v>0.17592464423481899</v>
       </c>
       <c r="M91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!L11</f>
+        <f>[6]daily_6f_env_ratios_stats!L11</f>
         <v>0.180983912084862</v>
       </c>
       <c r="N91" s="3">
-        <f>[5]daily_6f_env_ratios_stats!M11</f>
+        <f>[6]daily_6f_env_ratios_stats!M11</f>
         <v>0.17297297452827301</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A12</f>
+        <f>[6]daily_6f_env_ratios_stats!A12</f>
         <v>Skewness</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!B12</f>
+        <f>[6]daily_6f_env_ratios_stats!B12</f>
         <v>0.74616379381097697</v>
       </c>
       <c r="D92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!C12</f>
+        <f>[6]daily_6f_env_ratios_stats!C12</f>
         <v>0.17312332744343301</v>
       </c>
       <c r="E92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!D12</f>
+        <f>[6]daily_6f_env_ratios_stats!D12</f>
         <v>0.80545838595790498</v>
       </c>
       <c r="F92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!E12</f>
+        <f>[6]daily_6f_env_ratios_stats!E12</f>
         <v>-0.21959498226416899</v>
       </c>
       <c r="G92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!F12</f>
+        <f>[6]daily_6f_env_ratios_stats!F12</f>
         <v>0.30393780473648102</v>
       </c>
       <c r="H92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!G12</f>
+        <f>[6]daily_6f_env_ratios_stats!G12</f>
         <v>0.49269580007268399</v>
       </c>
       <c r="I92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!H12</f>
+        <f>[6]daily_6f_env_ratios_stats!H12</f>
         <v>0.148655186790873</v>
       </c>
       <c r="J92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!I12</f>
+        <f>[6]daily_6f_env_ratios_stats!I12</f>
         <v>7.3545999006512194E-2</v>
       </c>
       <c r="K92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!J12</f>
+        <f>[6]daily_6f_env_ratios_stats!J12</f>
         <v>2.87899296696826E-2</v>
       </c>
       <c r="L92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!K12</f>
+        <f>[6]daily_6f_env_ratios_stats!K12</f>
         <v>0.196219012417755</v>
       </c>
       <c r="M92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!L12</f>
+        <f>[6]daily_6f_env_ratios_stats!L12</f>
         <v>3.1086192517985101E-2</v>
       </c>
       <c r="N92" s="12">
-        <f>[5]daily_6f_env_ratios_stats!M12</f>
+        <f>[6]daily_6f_env_ratios_stats!M12</f>
         <v>5.4521397159784303E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A13</f>
+        <f>[6]daily_6f_env_ratios_stats!A13</f>
         <v>SE.Skewness</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!B13</f>
+        <f>[6]daily_6f_env_ratios_stats!B13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="D93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!C13</f>
+        <f>[6]daily_6f_env_ratios_stats!C13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="E93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!D13</f>
+        <f>[6]daily_6f_env_ratios_stats!D13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="F93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!E13</f>
+        <f>[6]daily_6f_env_ratios_stats!E13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="G93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!F13</f>
+        <f>[6]daily_6f_env_ratios_stats!F13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="H93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!G13</f>
+        <f>[6]daily_6f_env_ratios_stats!G13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="I93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!H13</f>
+        <f>[6]daily_6f_env_ratios_stats!H13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="J93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!I13</f>
+        <f>[6]daily_6f_env_ratios_stats!I13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="K93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!J13</f>
+        <f>[6]daily_6f_env_ratios_stats!J13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="L93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!K13</f>
+        <f>[6]daily_6f_env_ratios_stats!K13</f>
         <v>0.27054479931869102</v>
       </c>
       <c r="M93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!L13</f>
+        <f>[6]daily_6f_env_ratios_stats!L13</f>
         <v>0.29283625195482998</v>
       </c>
       <c r="N93" s="12">
-        <f>[5]daily_6f_env_ratios_stats!M13</f>
+        <f>[6]daily_6f_env_ratios_stats!M13</f>
         <v>0.29283625195482998</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A14</f>
+        <f>[6]daily_6f_env_ratios_stats!A14</f>
         <v>Kurtosis</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!B14</f>
+        <f>[6]daily_6f_env_ratios_stats!B14</f>
         <v>8.2143273225582902E-2</v>
       </c>
       <c r="D94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!C14</f>
+        <f>[6]daily_6f_env_ratios_stats!C14</f>
         <v>0.46621738248397598</v>
       </c>
       <c r="E94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!D14</f>
+        <f>[6]daily_6f_env_ratios_stats!D14</f>
         <v>-2.31277260512988E-2</v>
       </c>
       <c r="F94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!E14</f>
+        <f>[6]daily_6f_env_ratios_stats!E14</f>
         <v>-0.70750879674599199</v>
       </c>
       <c r="G94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!F14</f>
+        <f>[6]daily_6f_env_ratios_stats!F14</f>
         <v>-0.74032245746807201</v>
       </c>
       <c r="H94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!G14</f>
+        <f>[6]daily_6f_env_ratios_stats!G14</f>
         <v>0.204896262798651</v>
       </c>
       <c r="I94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!H14</f>
+        <f>[6]daily_6f_env_ratios_stats!H14</f>
         <v>-0.799892332649912</v>
       </c>
       <c r="J94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!I14</f>
+        <f>[6]daily_6f_env_ratios_stats!I14</f>
         <v>-0.81898446224713695</v>
       </c>
       <c r="K94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!J14</f>
+        <f>[6]daily_6f_env_ratios_stats!J14</f>
         <v>-0.839561870181599</v>
       </c>
       <c r="L94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!K14</f>
+        <f>[6]daily_6f_env_ratios_stats!K14</f>
         <v>-0.94911696600892403</v>
       </c>
       <c r="M94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!L14</f>
+        <f>[6]daily_6f_env_ratios_stats!L14</f>
         <v>-0.99119974047108095</v>
       </c>
       <c r="N94" s="12">
-        <f>[5]daily_6f_env_ratios_stats!M14</f>
+        <f>[6]daily_6f_env_ratios_stats!M14</f>
         <v>-0.71378677394073298</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A15</f>
+        <f>[6]daily_6f_env_ratios_stats!A15</f>
         <v>N.Valid</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!B15</f>
+        <f>[6]daily_6f_env_ratios_stats!B15</f>
         <v>79</v>
       </c>
       <c r="D95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!C15</f>
+        <f>[6]daily_6f_env_ratios_stats!C15</f>
         <v>79</v>
       </c>
       <c r="E95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!D15</f>
+        <f>[6]daily_6f_env_ratios_stats!D15</f>
         <v>67</v>
       </c>
       <c r="F95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!E15</f>
+        <f>[6]daily_6f_env_ratios_stats!E15</f>
         <v>67</v>
       </c>
       <c r="G95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!F15</f>
+        <f>[6]daily_6f_env_ratios_stats!F15</f>
         <v>79</v>
       </c>
       <c r="H95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!G15</f>
+        <f>[6]daily_6f_env_ratios_stats!G15</f>
         <v>79</v>
       </c>
       <c r="I95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!H15</f>
+        <f>[6]daily_6f_env_ratios_stats!H15</f>
         <v>67</v>
       </c>
       <c r="J95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!I15</f>
+        <f>[6]daily_6f_env_ratios_stats!I15</f>
         <v>67</v>
       </c>
       <c r="K95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!J15</f>
+        <f>[6]daily_6f_env_ratios_stats!J15</f>
         <v>79</v>
       </c>
       <c r="L95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!K15</f>
+        <f>[6]daily_6f_env_ratios_stats!K15</f>
         <v>79</v>
       </c>
       <c r="M95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!L15</f>
+        <f>[6]daily_6f_env_ratios_stats!L15</f>
         <v>67</v>
       </c>
       <c r="N95" s="12">
-        <f>[5]daily_6f_env_ratios_stats!M15</f>
+        <f>[6]daily_6f_env_ratios_stats!M15</f>
         <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>[5]daily_6f_env_ratios_stats!A16</f>
+        <f>[6]daily_6f_env_ratios_stats!A16</f>
         <v>Pct.Valid</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>daily_6f_env_ratios_stats</v>
       </c>
       <c r="C96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!B16</f>
+        <f>[6]daily_6f_env_ratios_stats!B16</f>
         <v>100</v>
       </c>
       <c r="D96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!C16</f>
+        <f>[6]daily_6f_env_ratios_stats!C16</f>
         <v>100</v>
       </c>
       <c r="E96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!D16</f>
+        <f>[6]daily_6f_env_ratios_stats!D16</f>
         <v>100</v>
       </c>
       <c r="F96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!E16</f>
+        <f>[6]daily_6f_env_ratios_stats!E16</f>
         <v>100</v>
       </c>
       <c r="G96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!F16</f>
+        <f>[6]daily_6f_env_ratios_stats!F16</f>
         <v>100</v>
       </c>
       <c r="H96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!G16</f>
+        <f>[6]daily_6f_env_ratios_stats!G16</f>
         <v>100</v>
       </c>
       <c r="I96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!H16</f>
+        <f>[6]daily_6f_env_ratios_stats!H16</f>
         <v>100</v>
       </c>
       <c r="J96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!I16</f>
+        <f>[6]daily_6f_env_ratios_stats!I16</f>
         <v>100</v>
       </c>
       <c r="K96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!J16</f>
+        <f>[6]daily_6f_env_ratios_stats!J16</f>
         <v>100</v>
       </c>
       <c r="L96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!K16</f>
+        <f>[6]daily_6f_env_ratios_stats!K16</f>
         <v>100</v>
       </c>
       <c r="M96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!L16</f>
+        <f>[6]daily_6f_env_ratios_stats!L16</f>
         <v>100</v>
       </c>
       <c r="N96" s="12">
-        <f>[5]daily_6f_env_ratios_stats!M16</f>
+        <f>[6]daily_6f_env_ratios_stats!M16</f>
         <v>100</v>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
         <v>Std.Dev</v>
       </c>
       <c r="B99" t="str">
-        <f>B98</f>
+        <f t="shared" ref="B99:B112" si="6">B98</f>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C99" s="3">
@@ -11020,7 +11020,7 @@
         <v>Min</v>
       </c>
       <c r="B100" t="str">
-        <f>B99</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C100" s="3">
@@ -11078,7 +11078,7 @@
         <v>Q1</v>
       </c>
       <c r="B101" t="str">
-        <f>B100</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C101" s="3">
@@ -11136,7 +11136,7 @@
         <v>Median</v>
       </c>
       <c r="B102" t="str">
-        <f>B101</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C102" s="3">
@@ -11194,7 +11194,7 @@
         <v>Q3</v>
       </c>
       <c r="B103" t="str">
-        <f>B102</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C103" s="3">
@@ -11252,7 +11252,7 @@
         <v>Max</v>
       </c>
       <c r="B104" t="str">
-        <f>B103</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C104" s="3">
@@ -11310,7 +11310,7 @@
         <v>MAD</v>
       </c>
       <c r="B105" t="str">
-        <f>B104</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C105" s="3">
@@ -11368,7 +11368,7 @@
         <v>IQR</v>
       </c>
       <c r="B106" t="str">
-        <f>B105</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C106" s="3">
@@ -11426,7 +11426,7 @@
         <v>CV</v>
       </c>
       <c r="B107" t="str">
-        <f>B106</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C107" s="3">
@@ -11484,7 +11484,7 @@
         <v>Skewness</v>
       </c>
       <c r="B108" t="str">
-        <f>B107</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C108" s="12">
@@ -11542,7 +11542,7 @@
         <v>SE.Skewness</v>
       </c>
       <c r="B109" t="str">
-        <f>B108</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C109" s="12">
@@ -11600,7 +11600,7 @@
         <v>Kurtosis</v>
       </c>
       <c r="B110" t="str">
-        <f>B109</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C110" s="12">
@@ -11658,7 +11658,7 @@
         <v>N.Valid</v>
       </c>
       <c r="B111" t="str">
-        <f>B110</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C111" s="12">
@@ -11716,7 +11716,7 @@
         <v>Pct.Valid</v>
       </c>
       <c r="B112" t="str">
-        <f>B111</f>
+        <f t="shared" si="6"/>
         <v>daily_3f_ghg_ratios_stats</v>
       </c>
       <c r="C112" s="12">
@@ -11831,7 +11831,7 @@
         <v>Std.Dev</v>
       </c>
       <c r="B115" t="str">
-        <f>B114</f>
+        <f t="shared" ref="B115:B128" si="7">B114</f>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C115" s="3">
@@ -11889,7 +11889,7 @@
         <v>Min</v>
       </c>
       <c r="B116" t="str">
-        <f>B115</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C116" s="3">
@@ -11947,7 +11947,7 @@
         <v>Q1</v>
       </c>
       <c r="B117" t="str">
-        <f>B116</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C117" s="3">
@@ -12005,7 +12005,7 @@
         <v>Median</v>
       </c>
       <c r="B118" t="str">
-        <f>B117</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C118" s="3">
@@ -12063,7 +12063,7 @@
         <v>Q3</v>
       </c>
       <c r="B119" t="str">
-        <f>B118</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C119" s="3">
@@ -12121,7 +12121,7 @@
         <v>Max</v>
       </c>
       <c r="B120" t="str">
-        <f>B119</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C120" s="3">
@@ -12179,7 +12179,7 @@
         <v>MAD</v>
       </c>
       <c r="B121" t="str">
-        <f>B120</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C121" s="3">
@@ -12237,7 +12237,7 @@
         <v>IQR</v>
       </c>
       <c r="B122" t="str">
-        <f>B121</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C122" s="3">
@@ -12295,7 +12295,7 @@
         <v>CV</v>
       </c>
       <c r="B123" t="str">
-        <f>B122</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C123" s="3">
@@ -12353,7 +12353,7 @@
         <v>Skewness</v>
       </c>
       <c r="B124" t="str">
-        <f>B123</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C124" s="12">
@@ -12411,7 +12411,7 @@
         <v>SE.Skewness</v>
       </c>
       <c r="B125" t="str">
-        <f>B124</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C125" s="12">
@@ -12469,7 +12469,7 @@
         <v>Kurtosis</v>
       </c>
       <c r="B126" t="str">
-        <f>B125</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C126" s="12">
@@ -12527,7 +12527,7 @@
         <v>N.Valid</v>
       </c>
       <c r="B127" t="str">
-        <f>B126</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C127" s="12">
@@ -12585,7 +12585,7 @@
         <v>Pct.Valid</v>
       </c>
       <c r="B128" t="str">
-        <f>B127</f>
+        <f t="shared" si="7"/>
         <v>daily_3f_env_ratios_stats</v>
       </c>
       <c r="C128" s="12">
@@ -13409,7 +13409,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13427,49 +13427,49 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13485,35 +13485,35 @@
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>Links!C2</f>
         <v>0.114344821587698</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>Links!D2</f>
         <v>9.8386492989249702E-2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f>Links!E2</f>
         <v>0.110895469828275</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>Links!F2</f>
         <v>0.10189044103985501</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f>Links!G2</f>
         <v>0.11870388802767801</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f>Links!H2</f>
         <v>0.108113079841596</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <f>Links!I2</f>
         <v>0.11025089112006201</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f>Links!J2</f>
         <v>0.107386998756904</v>
       </c>
@@ -13530,35 +13530,35 @@
       <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>Links!C3</f>
         <v>3.2621904070673599E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <f>Links!D3</f>
         <v>2.7404094161574199E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>Links!E3</f>
         <v>3.1328828451250998E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>Links!F3</f>
         <v>2.56107261453388E-2</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <f>Links!G3</f>
         <v>2.46854892870466E-2</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f>Links!H3</f>
         <v>2.0591791252437399E-2</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <f>Links!I3</f>
         <v>2.0195155245971701E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>Links!J3</f>
         <v>1.96242153019376E-2</v>
       </c>
@@ -13575,35 +13575,35 @@
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>Links!C4</f>
         <v>4.7490117559319298E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>Links!D4</f>
         <v>6.0836053537233897E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>Links!E4</f>
         <v>5.0906405261978802E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>Links!F4</f>
         <v>5.2733717375637403E-2</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f>Links!G4</f>
         <v>5.6123847267301401E-2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>Links!H4</f>
         <v>6.9271178285422799E-2</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <f>Links!I4</f>
         <v>8.2717848679106198E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>Links!J4</f>
         <v>6.7578708512667701E-2</v>
       </c>
@@ -13620,35 +13620,35 @@
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>Links!C8</f>
         <v>0.17559515202536899</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>Links!D8</f>
         <v>0.15549515315103701</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>Links!E8</f>
         <v>0.15979102544395199</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>Links!F8</f>
         <v>0.14808038342062799</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f>Links!G8</f>
         <v>0.17110977673352201</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>Links!H8</f>
         <v>0.15568499855849499</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>Links!I8</f>
         <v>0.158273127319152</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>Links!J8</f>
         <v>0.150272043835254</v>
       </c>
@@ -13665,35 +13665,35 @@
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f>Links!C12</f>
         <v>-0.56179608145751103</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f>Links!D12</f>
         <v>0.53205994051668204</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>Links!E12</f>
         <v>-0.196016219758298</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f>Links!F12</f>
         <v>-0.14485879095266099</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f>Links!G12</f>
         <v>-0.54142072795790097</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f>Links!H12</f>
         <v>0.387084282639374</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f>Links!I12</f>
         <v>0.77844908394193701</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <f>Links!J12</f>
         <v>0.19211782940136399</v>
       </c>
@@ -13710,93 +13710,93 @@
       <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f>Links!C14</f>
         <v>-0.67915669825422997</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>Links!D14</f>
         <v>-0.79349768100919604</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f>Links!E14</f>
         <v>-1.1201875352869199</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f>Links!F14</f>
         <v>-0.98143555958430195</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f>Links!G14</f>
         <v>0.348292555105713</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f>Links!H14</f>
         <v>-0.203498237534918</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <f>Links!I14</f>
         <v>-0.28722570647684198</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f>Links!J14</f>
         <v>-0.29116205270222001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13812,35 +13812,35 @@
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>Links!C66</f>
         <v>0.111990743554658</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>Links!D66</f>
         <v>8.1573566686531401E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f>Links!E66</f>
         <v>0.118744492580641</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>Links!F66</f>
         <v>8.5725276344395501E-2</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f>Links!G66</f>
         <v>0.10709494229666799</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f>Links!H66</f>
         <v>8.6024049528840602E-2</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <f>Links!I66</f>
         <v>0.10008413880505899</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f>Links!J66</f>
         <v>7.9378149617804497E-2</v>
       </c>
@@ -13857,35 +13857,35 @@
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>Links!C67</f>
         <v>3.1964476572623801E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>Links!D67</f>
         <v>1.9182099778362601E-2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f>Links!E67</f>
         <v>3.6912086943246498E-2</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>Links!F67</f>
         <v>2.9055668093139201E-2</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f>Links!G67</f>
         <v>2.29514481440844E-2</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f>Links!H67</f>
         <v>1.8062783244391398E-2</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f>Links!I67</f>
         <v>2.2292301208599902E-2</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <f>Links!J67</f>
         <v>1.6676582298545E-2</v>
       </c>
@@ -13902,35 +13902,35 @@
       <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>Links!C68</f>
         <v>5.2550869528202801E-2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f>Links!D68</f>
         <v>3.0260428517019902E-2</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f>Links!E68</f>
         <v>5.49858337587701E-2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f>Links!F68</f>
         <v>3.4860350152696999E-2</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f>Links!G68</f>
         <v>5.5634187919242802E-2</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f>Links!H68</f>
         <v>3.8474379393633899E-2</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <f>Links!I68</f>
         <v>5.8180982861259903E-2</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <f>Links!J68</f>
         <v>3.7483440181491398E-2</v>
       </c>
@@ -13947,35 +13947,35 @@
       <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>Links!C72</f>
         <v>0.17313935009082401</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <f>Links!D72</f>
         <v>0.122533181558713</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f>Links!E72</f>
         <v>0.20273228143849301</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f>Links!F72</f>
         <v>0.148146013377674</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f>Links!G72</f>
         <v>0.155185358711665</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f>Links!H72</f>
         <v>0.117311915814917</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f>Links!I72</f>
         <v>0.148205663747767</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <f>Links!J72</f>
         <v>0.11116659503262399</v>
       </c>
@@ -13992,35 +13992,35 @@
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f>Links!C76</f>
         <v>-6.3112666575605603E-2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <f>Links!D76</f>
         <v>-1.8973559544133298E-2</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <f>Links!E76</f>
         <v>0.33165125157495801</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f>Links!F76</f>
         <v>0.26953596584113898</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <f>Links!G76</f>
         <v>-0.49240921314503899</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <f>Links!H76</f>
         <v>-0.600626770937848</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <f>Links!I76</f>
         <v>0.116004587578748</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f>Links!J76</f>
         <v>-0.41184128275821802</v>
       </c>
@@ -14037,93 +14037,93 @@
       <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f>Links!C78</f>
         <v>-0.80352218803665199</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <f>Links!D78</f>
         <v>-0.63701195472633398</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>Links!E78</f>
         <v>-0.60440985996519603</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f>Links!F78</f>
         <v>-0.91699231507274603</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>Links!G78</f>
         <v>-0.49176907770992401</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>Links!H78</f>
         <v>-0.26040607612413402</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <f>Links!I78</f>
         <v>-0.61258981080719499</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f>Links!J78</f>
         <v>-0.22870162473469899</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14139,35 +14139,35 @@
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>Links!C18</f>
         <v>9.8515751184516706E-2</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <f>Links!D18</f>
         <v>8.2246284365369807E-2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f>Links!E18</f>
         <v>9.2029031146423093E-2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f>Links!F18</f>
         <v>7.62847458184817E-2</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <f>Links!G18</f>
         <v>9.0604405131378102E-2</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f>Links!H18</f>
         <v>8.7070362607772595E-2</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <f>Links!I18</f>
         <v>0.111596104269786</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <f>Links!J18</f>
         <v>9.1937640082174102E-2</v>
       </c>
@@ -14184,35 +14184,35 @@
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f>Links!C19</f>
         <v>1.45640998478767E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <f>Links!D19</f>
         <v>8.9502755362556793E-3</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <f>Links!E19</f>
         <v>1.4734059487323601E-2</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f>Links!F19</f>
         <v>1.4672305420486901E-2</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <f>Links!G19</f>
         <v>1.4411872824106799E-2</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f>Links!H19</f>
         <v>1.3613608941020899E-2</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <f>Links!I19</f>
         <v>1.83714298741702E-2</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <f>Links!J19</f>
         <v>2.4355769447388102E-2</v>
       </c>
@@ -14229,35 +14229,35 @@
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f>Links!C20</f>
         <v>7.7243478353892198E-2</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <f>Links!D20</f>
         <v>5.9193688787896201E-2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <f>Links!E20</f>
         <v>7.2910310980653995E-2</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f>Links!F20</f>
         <v>4.6020954041844801E-2</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f>Links!G20</f>
         <v>6.5103321622029503E-2</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <f>Links!H20</f>
         <v>5.6845942984562699E-2</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <f>Links!I20</f>
         <v>6.6615114382208296E-2</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <f>Links!J20</f>
         <v>5.3280835469251199E-2</v>
       </c>
@@ -14274,35 +14274,35 @@
       <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f>Links!C24</f>
         <v>0.13949557843934099</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <f>Links!D24</f>
         <v>0.10482459653801</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <f>Links!E24</f>
         <v>0.13202355118178</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f>Links!F24</f>
         <v>0.111149920521527</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f>Links!G24</f>
         <v>0.11217141531625099</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <f>Links!H24</f>
         <v>0.123225310375959</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="14">
         <f>Links!I24</f>
         <v>0.15575427943925499</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <f>Links!J24</f>
         <v>0.14671964100006801</v>
       </c>
@@ -14319,35 +14319,35 @@
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f>Links!C28</f>
         <v>0.80280060656719698</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f>Links!D28</f>
         <v>0.18040210398959</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <f>Links!E28</f>
         <v>0.84620445214624496</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f>Links!F28</f>
         <v>0.344356225432211</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f>Links!G28</f>
         <v>-0.28728438188522398</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <f>Links!H28</f>
         <v>0.41189138318051399</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <f>Links!I28</f>
         <v>-9.0326581283575305E-2</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <f>Links!J28</f>
         <v>0.35470018449118901</v>
       </c>
@@ -14364,35 +14364,35 @@
       <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <f>Links!C30</f>
         <v>0.29797581311150201</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f>Links!D30</f>
         <v>1.16693112327631</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <f>Links!E30</f>
         <v>0.20354027775497599</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f>Links!F30</f>
         <v>-0.114564877331557</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <f>Links!G30</f>
         <v>-1.0986487292204901</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <f>Links!H30</f>
         <v>0.329882603056534</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <f>Links!I30</f>
         <v>0.52297698334786302</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <f>Links!J30</f>
         <v>-0.89015705332155903</v>
       </c>
@@ -14409,47 +14409,47 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14465,35 +14465,35 @@
       <c r="C30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <f>Links!C34</f>
         <v>0.17009253011792599</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <f>Links!D34</f>
         <v>0.13353242653862801</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <f>Links!E34</f>
         <v>0.16912667274898999</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f>Links!F34</f>
         <v>0.13769624093424601</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <f>Links!G34</f>
         <v>0.12703066835836899</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <f>Links!H34</f>
         <v>0.11405927731835901</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <f>Links!I34</f>
         <v>0.118729476165208</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <f>Links!J34</f>
         <v>0.110657562973707</v>
       </c>
@@ -14510,35 +14510,35 @@
       <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <f>Links!C35</f>
         <v>3.8442914092030801E-2</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <f>Links!D35</f>
         <v>2.8807450281920801E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <f>Links!E35</f>
         <v>3.05646008792139E-2</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f>Links!F35</f>
         <v>2.9690806795095601E-2</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <f>Links!G35</f>
         <v>2.3693997661507499E-2</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <f>Links!H35</f>
         <v>2.7322593188892699E-2</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <f>Links!I35</f>
         <v>1.7432189189056601E-2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <f>Links!J35</f>
         <v>3.0573981364662502E-2</v>
       </c>
@@ -14555,35 +14555,35 @@
       <c r="C32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <f>Links!C36</f>
         <v>0.100857207004168</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <f>Links!D36</f>
         <v>7.4975797409576994E-2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <f>Links!E36</f>
         <v>0.112939073663143</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f>Links!F36</f>
         <v>7.7976930144829204E-2</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <f>Links!G36</f>
         <v>6.0826717711676803E-2</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <f>Links!H36</f>
         <v>7.8662542594587007E-2</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="14">
         <f>Links!I36</f>
         <v>7.98124779354763E-2</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <f>Links!J36</f>
         <v>7.1553185136335795E-2</v>
       </c>
@@ -14600,35 +14600,35 @@
       <c r="C33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <f>Links!C40</f>
         <v>0.22560655858921999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <f>Links!D40</f>
         <v>0.188200610634571</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f>Links!E40</f>
         <v>0.217022051975819</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f>Links!F40</f>
         <v>0.18736603515264999</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <f>Links!G40</f>
         <v>0.17466363140963101</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <f>Links!H40</f>
         <v>0.20540546975420401</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="14">
         <f>Links!I40</f>
         <v>0.14499492861916299</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <f>Links!J40</f>
         <v>0.21348803510056499</v>
       </c>
@@ -14645,35 +14645,35 @@
       <c r="C34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <f>Links!C44</f>
         <v>-0.40482479069723998</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <f>Links!D44</f>
         <v>0.13457925651270999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <f>Links!E44</f>
         <v>-0.26063086121368101</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f>Links!F44</f>
         <v>-0.27722620041937102</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f>Links!G44</f>
         <v>-0.439122433582466</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <f>Links!H44</f>
         <v>1.53656652373345</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <f>Links!I44</f>
         <v>-0.81971295891920604</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f>Links!J44</f>
         <v>1.7283223736957201</v>
       </c>
@@ -14690,35 +14690,35 @@
       <c r="C35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <f>Links!C46</f>
         <v>-1.26817709672401</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f>Links!D46</f>
         <v>-0.59985803274613003</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <f>Links!E46</f>
         <v>-1.1044503680528399</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <f>Links!F46</f>
         <v>-0.96707253543737304</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <f>Links!G46</f>
         <v>0.55306742749103499</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <f>Links!H46</f>
         <v>2.4149459218244602</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <f>Links!I46</f>
         <v>-9.2204017459430507E-2</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <f>Links!J46</f>
         <v>3.1330036996122401</v>
       </c>
